--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6437FFC-88C1-4431-BC43-40769EEC7672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301805C-3D28-4BFB-B095-5A7FB23983DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Shares</t>
   </si>
@@ -99,17 +99,137 @@
     <t>OpEx</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
     <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Oil&amp;Gas OpEx</t>
+  </si>
+  <si>
+    <t>Transport Costs</t>
+  </si>
+  <si>
+    <t>Chemical COGS</t>
+  </si>
+  <si>
+    <t>PreTax</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Total Revenues</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Trade Recievables</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Assets Held</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Oil and Gas</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q418</t>
+  </si>
+  <si>
+    <t>Q318</t>
+  </si>
+  <si>
+    <t>Q218</t>
+  </si>
+  <si>
+    <t>Q118</t>
+  </si>
+  <si>
+    <t>Net Cash Y/Y</t>
+  </si>
+  <si>
+    <t>Tax Rate (%)</t>
+  </si>
+  <si>
+    <t>Debt Y/Y</t>
+  </si>
+  <si>
+    <t>Debt Q/Q</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>PPE Y/Y</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +246,35 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="iArial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,17 +294,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -170,6 +327,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E75EDC-2977-85A5-6988-DFE6C6D396FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830175" y="9525"/>
+          <a:ext cx="19050" cy="8477250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +650,7 @@
   <dimension ref="M2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -453,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>65.73</v>
+        <v>63.51</v>
       </c>
     </row>
     <row r="3" spans="13:14">
@@ -470,7 +682,7 @@
       </c>
       <c r="N4" s="2">
         <f>N3*N2</f>
-        <v>61226.903430000006</v>
+        <v>59158.993409999995</v>
       </c>
     </row>
     <row r="5" spans="13:14">
@@ -495,7 +707,7 @@
       </c>
       <c r="N7" s="2">
         <f>N4-N5+N6</f>
-        <v>81607.903430000006</v>
+        <v>79539.993409999995</v>
       </c>
     </row>
   </sheetData>
@@ -506,152 +718,2535 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74529DB0-8571-4B43-9BC5-196479CE57DE}">
-  <dimension ref="B1:L13"/>
+  <dimension ref="A1:AK1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="9.28515625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="1:27">
+      <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43190</v>
+      </c>
       <c r="D1" s="4">
+        <v>43281</v>
+      </c>
+      <c r="E1" s="4">
+        <v>43373</v>
+      </c>
+      <c r="G1" s="4">
+        <v>43555</v>
+      </c>
+      <c r="H1" s="4">
+        <v>43646</v>
+      </c>
+      <c r="I1" s="4">
+        <v>43738</v>
+      </c>
+      <c r="J1" s="4">
+        <v>43830</v>
+      </c>
+      <c r="K1" s="4">
+        <v>43921</v>
+      </c>
+      <c r="L1" s="4">
         <v>44012</v>
       </c>
-      <c r="H1" s="4">
+      <c r="M1" s="4">
+        <v>44104</v>
+      </c>
+      <c r="N1" s="4">
+        <v>44196</v>
+      </c>
+      <c r="O1" s="4">
+        <v>44286</v>
+      </c>
+      <c r="P1" s="4">
         <v>44377</v>
       </c>
-      <c r="L1" s="4">
+      <c r="Q1" s="4">
+        <v>44469</v>
+      </c>
+      <c r="R1" s="4">
+        <v>44561</v>
+      </c>
+      <c r="S1" s="4">
+        <v>44651</v>
+      </c>
+      <c r="T1" s="4">
         <v>44742</v>
       </c>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="C2" s="3" t="s">
+      <c r="U1" s="4">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="M2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:12">
+      <c r="U2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="3">
+        <v>2190</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2232</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2539</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2284</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2098</v>
+      </c>
       <c r="H3" s="3">
+        <v>2484</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3313</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4455</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3351</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1621</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2319</v>
+      </c>
+      <c r="N3" s="3">
+        <v>2597</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3013</v>
+      </c>
+      <c r="P3" s="3">
         <v>3711</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
+        <v>3822</v>
+      </c>
+      <c r="S3" s="3">
+        <v>4799</v>
+      </c>
+      <c r="T3" s="3">
         <v>6040</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="3">
+        <v>140</v>
+      </c>
+      <c r="D4" s="3">
+        <v>175</v>
+      </c>
+      <c r="E4" s="3">
+        <v>216</v>
+      </c>
+      <c r="F4" s="3">
+        <v>160</v>
+      </c>
+      <c r="G4" s="3">
+        <v>143</v>
+      </c>
       <c r="H4" s="3">
+        <v>152</v>
+      </c>
+      <c r="I4" s="3">
+        <v>240</v>
+      </c>
+      <c r="J4" s="3">
+        <v>406</v>
+      </c>
+      <c r="K4" s="3">
+        <v>268</v>
+      </c>
+      <c r="L4" s="3">
+        <v>167</v>
+      </c>
+      <c r="M4" s="3">
+        <v>305</v>
+      </c>
+      <c r="N4" s="3">
+        <v>315</v>
+      </c>
+      <c r="O4" s="3">
+        <v>436</v>
+      </c>
+      <c r="P4" s="3">
         <v>550</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3">
+        <v>732</v>
+      </c>
+      <c r="S4" s="3">
+        <v>760</v>
+      </c>
+      <c r="T4" s="3">
         <v>896</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="3">
+        <v>121</v>
+      </c>
+      <c r="D5" s="3">
+        <v>118</v>
+      </c>
+      <c r="E5" s="3">
+        <v>132</v>
+      </c>
+      <c r="F5" s="3">
+        <v>124</v>
+      </c>
+      <c r="G5" s="3">
+        <v>130</v>
+      </c>
       <c r="H5" s="3">
+        <v>89</v>
+      </c>
+      <c r="I5" s="3">
+        <v>208</v>
+      </c>
+      <c r="J5" s="3">
+        <v>336</v>
+      </c>
+      <c r="K5" s="3">
+        <v>268</v>
+      </c>
+      <c r="L5" s="3">
+        <v>224</v>
+      </c>
+      <c r="M5" s="3">
+        <v>235</v>
+      </c>
+      <c r="N5" s="3">
+        <v>259</v>
+      </c>
+      <c r="O5" s="3">
+        <v>317</v>
+      </c>
+      <c r="P5" s="3">
         <v>387</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
+        <v>475</v>
+      </c>
+      <c r="S5" s="3">
+        <v>513</v>
+      </c>
+      <c r="T5" s="3">
         <v>754</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-20</v>
+      </c>
       <c r="H6" s="3">
+        <v>-7</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-15</v>
+      </c>
+      <c r="J6" s="3">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3">
+        <v>11</v>
+      </c>
+      <c r="L6" s="3">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3">
+        <v>23</v>
+      </c>
+      <c r="N6" s="3">
+        <v>11</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-31</v>
+      </c>
+      <c r="P6" s="3">
         <v>24</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="3">
+        <v>27</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="3">
+        <v>1122</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1170</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1184</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1172</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1055</v>
+      </c>
       <c r="H7" s="3">
+        <v>993</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1061</v>
+      </c>
+      <c r="J7" s="3">
+        <v>971</v>
+      </c>
+      <c r="K7" s="3">
+        <v>961</v>
+      </c>
+      <c r="L7" s="3">
+        <v>839</v>
+      </c>
+      <c r="M7" s="3">
+        <v>939</v>
+      </c>
+      <c r="N7" s="3">
+        <v>987</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1087</v>
+      </c>
+      <c r="P7" s="3">
         <v>1187</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
+        <v>1395</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1683</v>
+      </c>
+      <c r="T7" s="3">
         <v>1908</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="3">
+        <v>352</v>
+      </c>
+      <c r="D8" s="3">
+        <v>357</v>
+      </c>
+      <c r="E8" s="3">
+        <v>409</v>
+      </c>
+      <c r="F8" s="3">
+        <v>283</v>
+      </c>
+      <c r="G8" s="3">
+        <v>251</v>
+      </c>
       <c r="H8" s="3">
+        <v>225</v>
+      </c>
+      <c r="I8" s="3">
+        <v>409</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1443</v>
+      </c>
+      <c r="K8" s="3">
+        <v>387</v>
+      </c>
+      <c r="L8" s="3">
+        <v>598</v>
+      </c>
+      <c r="M8" s="3">
+        <v>379</v>
+      </c>
+      <c r="N8" s="3">
+        <v>803</v>
+      </c>
+      <c r="O8" s="3">
+        <v>628</v>
+      </c>
+      <c r="P8" s="3">
         <v>474</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
+        <v>690</v>
+      </c>
+      <c r="S8" s="3">
+        <v>747</v>
+      </c>
+      <c r="T8" s="3">
         <v>1150</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="3">
+        <v>-234</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-227</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-225</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-244</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-222</v>
+      </c>
       <c r="H9" s="3">
+        <v>-205</v>
+      </c>
+      <c r="I9" s="3">
+        <f>-368+383</f>
+        <v>15</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-852</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-199</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-162</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-182</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-215</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-266</v>
+      </c>
+      <c r="P9" s="3">
         <v>-231</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
+        <v>-261</v>
+      </c>
+      <c r="S9" s="3">
+        <v>-292</v>
+      </c>
+      <c r="T9" s="3">
         <v>-403</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="3" t="s">
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" s="5" customFormat="1">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="3">
-        <v>10676</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="5">
+        <f t="shared" ref="C10" si="0">SUM(C3:C9)</f>
+        <v>3694</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" ref="D10:F10" si="1">SUM(D3:D9)</f>
+        <v>3831</v>
+      </c>
+      <c r="E10" s="5">
+        <f>SUM(E3:E9)</f>
+        <v>4257</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>3778</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10" si="2">SUM(G3:G9)</f>
+        <v>3435</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10" si="3">SUM(H3:H9)</f>
+        <v>3731</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10" si="4">SUM(I3:I9)</f>
+        <v>5231</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" ref="J10" si="5">SUM(J3:J9)</f>
+        <v>6795</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" ref="K10:S10" si="6">SUM(K3:K9)</f>
+        <v>5047</v>
+      </c>
+      <c r="L10" s="5">
+        <f>SUM(L3:L9)</f>
+        <v>3308</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="6"/>
+        <v>4018</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="6"/>
+        <v>4757</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="6"/>
+        <v>5184</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="6"/>
+        <v>6102</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="6"/>
+        <v>6880</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="6"/>
+        <v>8213</v>
+      </c>
+      <c r="T10" s="5">
+        <f>SUM(T3:T9)</f>
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1">
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3825</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4131</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6176</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4802</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4089</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4476</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5871</v>
+      </c>
+      <c r="J11" s="6">
+        <v>7314</v>
+      </c>
+      <c r="K11" s="6">
+        <v>6451</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2976</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3283</v>
+      </c>
+      <c r="N11" s="6">
+        <v>3551</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5479</v>
+      </c>
+      <c r="P11" s="6">
+        <v>6010</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>6815</v>
+      </c>
+      <c r="S11" s="6">
+        <v>8533</v>
+      </c>
+      <c r="T11" s="6">
+        <v>10735</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="Y11" s="5"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" s="5" customFormat="1"/>
+    <row r="13" spans="1:27">
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3">
+        <v>645</v>
+      </c>
+      <c r="H13" s="3">
+        <v>717</v>
+      </c>
+      <c r="I13" s="3">
+        <v>962</v>
+      </c>
+      <c r="J13" s="3">
+        <v>958</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1046</v>
+      </c>
+      <c r="L13" s="3">
+        <v>631</v>
+      </c>
+      <c r="M13" s="3">
+        <v>626</v>
+      </c>
+      <c r="N13" s="3">
+        <v>762</v>
+      </c>
+      <c r="O13" s="3">
+        <v>776</v>
+      </c>
+      <c r="P13" s="3">
+        <v>712</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>829</v>
+      </c>
+      <c r="S13" s="3">
+        <v>864</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1005</v>
+      </c>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3">
+        <v>33</v>
+      </c>
+      <c r="I14" s="3">
+        <v>217</v>
+      </c>
+      <c r="J14" s="3">
+        <v>354</v>
+      </c>
+      <c r="K14" s="3">
+        <v>558</v>
+      </c>
+      <c r="L14" s="3">
+        <v>367</v>
+      </c>
+      <c r="M14" s="3">
+        <v>343</v>
+      </c>
+      <c r="N14" s="3">
+        <v>332</v>
+      </c>
+      <c r="O14" s="3">
+        <v>329</v>
+      </c>
+      <c r="P14" s="3">
+        <v>364</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>360</v>
+      </c>
+      <c r="S14" s="3">
+        <v>347</v>
+      </c>
+      <c r="T14" s="3">
+        <v>364</v>
+      </c>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3">
+        <v>669</v>
+      </c>
+      <c r="H15" s="3">
+        <v>636</v>
+      </c>
+      <c r="I15" s="3">
+        <v>741</v>
+      </c>
+      <c r="J15" s="3">
+        <v>745</v>
+      </c>
+      <c r="K15" s="3">
+        <v>612</v>
+      </c>
+      <c r="L15" s="3">
+        <v>577</v>
+      </c>
+      <c r="M15" s="3">
+        <v>618</v>
+      </c>
+      <c r="N15" s="3">
+        <v>601</v>
+      </c>
+      <c r="O15" s="3">
+        <v>594</v>
+      </c>
+      <c r="P15" s="3">
+        <v>676</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>731</v>
+      </c>
+      <c r="S15" s="3">
+        <v>818</v>
+      </c>
+      <c r="T15" s="3">
+        <v>835</v>
+      </c>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3">
+        <v>140</v>
+      </c>
+      <c r="H16" s="3">
+        <v>163</v>
+      </c>
+      <c r="I16" s="3">
+        <v>242</v>
+      </c>
+      <c r="J16" s="3">
+        <v>348</v>
+      </c>
+      <c r="K16" s="3">
+        <v>260</v>
+      </c>
+      <c r="L16" s="3">
+        <v>225</v>
+      </c>
+      <c r="M16" s="3">
+        <v>166</v>
+      </c>
+      <c r="N16" s="3">
+        <v>213</v>
+      </c>
+      <c r="O16" s="3">
+        <v>558</v>
+      </c>
+      <c r="P16" s="3">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>240</v>
+      </c>
+      <c r="S16" s="3">
+        <v>196</v>
+      </c>
+      <c r="T16" s="3">
+        <v>244</v>
+      </c>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="2:37">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="3" t="s">
-        <v>22</v>
+      <c r="C17" s="3">
+        <v>2841</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3059</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3684</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4073</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3306</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3632</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6563</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8501</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7828</v>
+      </c>
+      <c r="L17" s="3">
+        <v>11277</v>
+      </c>
+      <c r="M17" s="3">
+        <v>7552</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5256</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5684</v>
+      </c>
+      <c r="P17" s="3">
+        <v>5823</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>5735</v>
+      </c>
+      <c r="S17" s="3">
+        <f>5774-324</f>
+        <v>5450</v>
+      </c>
+      <c r="T17" s="3">
+        <v>6077</v>
+      </c>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="2:37">
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18" si="7">C11-C17</f>
+        <v>984</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:F18" si="8">D11-D17</f>
+        <v>1072</v>
+      </c>
+      <c r="E18" s="3">
+        <f>E11-E17</f>
+        <v>2492</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="8"/>
+        <v>729</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ref="G18" si="9">G11-G17</f>
+        <v>783</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" ref="H18" si="10">H11-H17</f>
+        <v>844</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" ref="I18" si="11">I11-I17</f>
+        <v>-692</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" ref="J18" si="12">J11-J17</f>
+        <v>-1187</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" ref="K18:S18" si="13">K11-K17</f>
+        <v>-1377</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="13"/>
+        <v>-8301</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="13"/>
+        <v>-4269</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="13"/>
+        <v>-1705</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="13"/>
+        <v>-205</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="13"/>
+        <v>1080</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="13"/>
+        <v>3083</v>
+      </c>
+      <c r="T18" s="3">
+        <f>T11-T17</f>
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19" si="14">C18-C20</f>
+        <v>276</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:F19" si="15">D18-D20</f>
+        <v>224</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19:F19" si="16">E18-E20</f>
+        <v>623</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" ref="G19" si="17">G18-G20</f>
+        <v>152</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" ref="H19" si="18">H18-H20</f>
+        <v>209</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" ref="I19" si="19">I18-I20</f>
+        <v>60</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" ref="J19" si="20">J18-J20</f>
+        <v>-151</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" ref="K19:S19" si="21">K18-K20</f>
+        <v>636</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="21"/>
+        <v>52</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="21"/>
+        <v>-694</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="21"/>
+        <v>-815</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="21"/>
+        <v>-59</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="21"/>
+        <v>44</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="21"/>
+        <v>252</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="21"/>
+        <v>-1593</v>
+      </c>
+      <c r="T19" s="3">
+        <f>T18-T20</f>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37">
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3">
+        <v>708</v>
+      </c>
+      <c r="D20" s="3">
+        <v>848</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1869</v>
+      </c>
+      <c r="F20" s="3">
+        <v>706</v>
+      </c>
+      <c r="G20" s="3">
+        <v>631</v>
+      </c>
+      <c r="H20" s="3">
+        <v>635</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-752</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1036</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-2013</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-8353</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-3575</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-890</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-146</v>
+      </c>
+      <c r="P20" s="3">
+        <v>143</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>828</v>
+      </c>
+      <c r="S20" s="3">
+        <v>4676</v>
+      </c>
+      <c r="T20" s="3">
+        <v>3755</v>
+      </c>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="2:37">
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1.06</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1.82</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-7.58</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-4.16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-1.42</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-0.11</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="S21" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="T21" s="3">
+        <v>3.76</v>
+      </c>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="2:37">
+      <c r="B22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>765</v>
+      </c>
+      <c r="D22" s="3">
+        <v>764</v>
+      </c>
+      <c r="E22" s="3">
+        <v>755</v>
+      </c>
+      <c r="F22" s="3">
+        <v>749</v>
+      </c>
+      <c r="G22" s="3">
+        <v>747</v>
+      </c>
+      <c r="H22" s="3">
+        <v>748</v>
+      </c>
+      <c r="I22" s="3">
+        <v>893</v>
+      </c>
+      <c r="J22" s="3">
+        <v>895</v>
+      </c>
+      <c r="K22" s="3">
+        <v>900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>930</v>
+      </c>
+      <c r="M22" s="3">
+        <v>931</v>
+      </c>
+      <c r="N22" s="3">
+        <v>931</v>
+      </c>
+      <c r="O22" s="3">
+        <v>933</v>
+      </c>
+      <c r="T22" s="3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="2:37">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="2:37">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:37">
+      <c r="B26" s="5"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+    </row>
+    <row r="27" spans="2:37">
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
+        <f t="shared" ref="D27:F27" si="22">D18/D11</f>
+        <v>0.25950133139675624</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="22"/>
+        <v>0.40349740932642486</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="22"/>
+        <v>0.15181174510620574</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" ref="G27:J27" si="23">G18/G11</f>
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="23"/>
+        <v>0.18856121537086684</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="23"/>
+        <v>-0.11786748424459206</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="23"/>
+        <v>-0.16229149576155319</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" ref="K27:N27" si="24">K18/K11</f>
+        <v>-0.2134552782514339</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="24"/>
+        <v>-2.7893145161290325</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="24"/>
+        <v>-1.300335059396893</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="24"/>
+        <v>-0.48014643762320475</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" ref="O27:Q27" si="25">O18/O11</f>
+        <v>-3.7415586785909838E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="25"/>
+        <v>3.1114808652246258E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="25"/>
+        <v>0.15847395451210564</v>
+      </c>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7">
+        <f t="shared" ref="S27:T27" si="26">S18/S11</f>
+        <v>0.3613031759053088</v>
+      </c>
+      <c r="T27" s="7">
+        <f>T18/T11</f>
+        <v>0.43390777829529575</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37">
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
+        <f t="shared" ref="D28:J28" si="27">D19/D18</f>
+        <v>0.20895522388059701</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="27"/>
+        <v>3.1550068587105622E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="27"/>
+        <v>0.19412515964240101</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" ref="H28" si="28">H19/H18</f>
+        <v>0.24763033175355451</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="27"/>
+        <v>-8.6705202312138727E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="27"/>
+        <v>0.12721145745577084</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" ref="K28:T28" si="29">K19/K18</f>
+        <v>-0.46187363834422657</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="29"/>
+        <v>-6.2643055053607996E-3</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="29"/>
+        <v>0.16256734598266573</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" ref="N28" si="30">N19/N18</f>
+        <v>0.47800586510263932</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="29"/>
+        <v>0.28780487804878047</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="29"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="29"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7">
+        <f t="shared" si="29"/>
+        <v>-0.51670450859552386</v>
+      </c>
+      <c r="T28" s="7">
+        <f>T19/T18</f>
+        <v>0.19386002576212966</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37">
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" ref="C30" si="31">C31-C44</f>
+        <v>-8703</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" ref="D30" si="32">D31-D44</f>
+        <v>-8950</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" ref="E30" si="33">E31-E44</f>
+        <v>-7244</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" ref="F30" si="34">F31-F44</f>
+        <v>-7168</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" ref="G30" si="35">G31-G44</f>
+        <v>-8451</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" ref="H30" si="36">H31-H44</f>
+        <v>-8404</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" ref="I30" si="37">I31-I44</f>
+        <v>-42289</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" ref="J30" si="38">J31-J44</f>
+        <v>-35020</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" ref="K30:S30" si="39">K31-K44</f>
+        <v>-33795</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="39"/>
+        <v>-34899</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="39"/>
+        <v>-34899</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="39"/>
+        <v>-33567</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="39"/>
+        <v>-33013</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="39"/>
+        <v>-28636</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="39"/>
+        <v>-26667</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="39"/>
+        <v>-23956</v>
+      </c>
+      <c r="T30" s="9">
+        <f>T31-T44</f>
+        <v>-20381</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37">
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1606</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1362</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2954</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3033</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1752</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1751</v>
+      </c>
+      <c r="I31" s="9">
+        <f>4840+454</f>
+        <v>5294</v>
+      </c>
+      <c r="J31" s="9">
+        <f>3032+485</f>
+        <v>3517</v>
+      </c>
+      <c r="K31" s="9">
+        <f>2021+242</f>
+        <v>2263</v>
+      </c>
+      <c r="L31" s="10">
+        <f>1011+124</f>
+        <v>1135</v>
+      </c>
+      <c r="M31" s="9">
+        <f>1011+124</f>
+        <v>1135</v>
+      </c>
+      <c r="N31" s="9">
+        <f>2008+170</f>
+        <v>2178</v>
+      </c>
+      <c r="O31" s="9">
+        <f>2270+183</f>
+        <v>2453</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9">
+        <f>2059+220</f>
+        <v>2279</v>
+      </c>
+      <c r="R31" s="9">
+        <v>2764</v>
+      </c>
+      <c r="S31" s="9">
+        <v>1909</v>
+      </c>
+      <c r="T31" s="9">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37">
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9">
+        <v>5184</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5521</v>
+      </c>
+      <c r="E32" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4893</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5310</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5273</v>
+      </c>
+      <c r="I32" s="9">
+        <v>5854</v>
+      </c>
+      <c r="J32" s="9">
+        <v>6373</v>
+      </c>
+      <c r="K32" s="9">
+        <v>2458</v>
+      </c>
+      <c r="L32" s="9">
+        <v>2359</v>
+      </c>
+      <c r="M32" s="9">
+        <v>2359</v>
+      </c>
+      <c r="N32" s="9">
+        <v>2115</v>
+      </c>
+      <c r="O32" s="9">
+        <v>3046</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9">
+        <v>3477</v>
+      </c>
+      <c r="R32" s="9">
+        <v>4208</v>
+      </c>
+      <c r="S32" s="9">
+        <v>5434</v>
+      </c>
+      <c r="T32" s="9">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1057</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1347</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1009</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1260</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1484</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1582</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1601</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1581</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1436</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1477</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1477</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1898</v>
+      </c>
+      <c r="O33" s="9">
+        <v>2173</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9">
+        <v>1773</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1846</v>
+      </c>
+      <c r="S33" s="9">
+        <v>1406</v>
+      </c>
+      <c r="T33" s="9">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9">
+        <v>335</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1664</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>6445</v>
+      </c>
+      <c r="J34" s="9">
+        <v>3870</v>
+      </c>
+      <c r="K34" s="9">
+        <v>5732</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1412</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1412</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1433</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1249</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9">
+        <v>1098</v>
+      </c>
+      <c r="R34" s="9">
+        <v>72</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9">
+        <v>8894</v>
+      </c>
+      <c r="D35" s="9">
+        <v>10990</v>
+      </c>
+      <c r="E35" s="9">
+        <v>11112</v>
+      </c>
+      <c r="F35" s="9">
+        <v>9932</v>
+      </c>
+      <c r="G35" s="9">
+        <v>9270</v>
+      </c>
+      <c r="H35" s="9">
+        <v>9425</v>
+      </c>
+      <c r="I35" s="9">
+        <v>20944</v>
+      </c>
+      <c r="J35" s="9">
+        <v>16773</v>
+      </c>
+      <c r="K35" s="9">
+        <v>14109</v>
+      </c>
+      <c r="L35" s="9">
+        <v>8437</v>
+      </c>
+      <c r="M35" s="9">
+        <v>3437</v>
+      </c>
+      <c r="N35" s="9">
+        <v>8819</v>
+      </c>
+      <c r="O35" s="9">
+        <v>10074</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9">
+        <v>9899</v>
+      </c>
+      <c r="R35" s="9">
+        <v>10211</v>
+      </c>
+      <c r="S35" s="9">
+        <v>10058</v>
+      </c>
+      <c r="T35" s="9">
+        <v>10408</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1509</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1551</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1568</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1670</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1725</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1777</v>
+      </c>
+      <c r="I36" s="9">
+        <v>3684</v>
+      </c>
+      <c r="J36" s="9">
+        <v>6389</v>
+      </c>
+      <c r="K36" s="9">
+        <v>6050</v>
+      </c>
+      <c r="L36" s="9">
+        <v>6128</v>
+      </c>
+      <c r="M36" s="9">
+        <v>6128</v>
+      </c>
+      <c r="N36" s="9">
+        <v>3250</v>
+      </c>
+      <c r="O36" s="9">
+        <v>3170</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9">
+        <v>3266</v>
+      </c>
+      <c r="R36" s="9">
+        <v>2938</v>
+      </c>
+      <c r="S36" s="9">
+        <v>3015</v>
+      </c>
+      <c r="T36" s="9">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" ref="C37:H37" si="40">0.84*C41</f>
+        <v>59860.079999999994</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="40"/>
+        <v>59819.759999999995</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="40"/>
+        <v>61303.199999999997</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="40"/>
+        <v>62496</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="40"/>
+        <v>63682.92</v>
+      </c>
+      <c r="H37" s="9">
+        <f>0.84*H41</f>
+        <v>64683.360000000001</v>
+      </c>
+      <c r="I37" s="9">
+        <v>110668</v>
+      </c>
+      <c r="J37" s="9">
+        <v>107801</v>
+      </c>
+      <c r="K37" s="9">
+        <v>107014</v>
+      </c>
+      <c r="L37" s="9">
+        <v>109026</v>
+      </c>
+      <c r="M37" s="9">
+        <v>109026</v>
+      </c>
+      <c r="N37" s="9">
+        <v>102454</v>
+      </c>
+      <c r="O37" s="9">
+        <v>102718</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9">
+        <v>100483</v>
+      </c>
+      <c r="R37" s="9">
+        <v>101251</v>
+      </c>
+      <c r="S37" s="9">
+        <v>101511</v>
+      </c>
+      <c r="T37" s="9">
+        <v>102122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" ref="C38:H38" si="41">0.06*C41</f>
+        <v>4275.72</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="41"/>
+        <v>4272.84</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="41"/>
+        <v>4378.8</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="41"/>
+        <v>4464</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="41"/>
+        <v>4548.78</v>
+      </c>
+      <c r="H38" s="9">
+        <f>0.06*H41</f>
+        <v>4620.24</v>
+      </c>
+      <c r="I38" s="9">
+        <v>7092</v>
+      </c>
+      <c r="J38" s="9">
+        <v>7172</v>
+      </c>
+      <c r="K38" s="9">
+        <v>7187</v>
+      </c>
+      <c r="L38" s="9">
+        <v>7204</v>
+      </c>
+      <c r="M38" s="9">
+        <v>7204</v>
+      </c>
+      <c r="N38" s="9">
+        <v>7356</v>
+      </c>
+      <c r="O38" s="9">
+        <v>7387</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9">
+        <v>7468</v>
+      </c>
+      <c r="R38" s="9">
+        <v>7571</v>
+      </c>
+      <c r="S38" s="9">
+        <v>7588</v>
+      </c>
+      <c r="T38" s="9">
+        <v>7629</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" ref="C39:H39" si="42">0.07*C41</f>
+        <v>4988.34</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="42"/>
+        <v>4984.9800000000005</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="42"/>
+        <v>5108.6000000000004</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="42"/>
+        <v>5208.0000000000009</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="42"/>
+        <v>5306.9100000000008</v>
+      </c>
+      <c r="H39" s="9">
+        <f>0.07*H41</f>
+        <v>5390.2800000000007</v>
+      </c>
+      <c r="I39" s="9">
+        <v>8133</v>
+      </c>
+      <c r="J39" s="9">
+        <v>8176</v>
+      </c>
+      <c r="K39" s="9">
+        <v>8189</v>
+      </c>
+      <c r="L39" s="9">
+        <v>8210</v>
+      </c>
+      <c r="M39" s="9">
+        <v>8210</v>
+      </c>
+      <c r="N39" s="9">
+        <v>8232</v>
+      </c>
+      <c r="O39" s="9">
+        <v>8249</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9">
+        <v>8304</v>
+      </c>
+      <c r="R39" s="9">
+        <v>8371</v>
+      </c>
+      <c r="S39" s="9">
+        <v>7483</v>
+      </c>
+      <c r="T39" s="9">
+        <v>7577</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" ref="C40:G40" si="43">0.01*C41</f>
+        <v>712.62</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="43"/>
+        <v>712.14</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="43"/>
+        <v>729.80000000000007</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="43"/>
+        <v>744</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="43"/>
+        <v>758.13</v>
+      </c>
+      <c r="H40" s="9">
+        <f>0.01*H41</f>
+        <v>770.04</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1397</v>
+      </c>
+      <c r="J40" s="9">
+        <v>1118</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1072</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1083</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1083</v>
+      </c>
+      <c r="N40" s="9">
+        <v>922</v>
+      </c>
+      <c r="O40" s="9">
+        <v>924</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9">
+        <v>937</v>
+      </c>
+      <c r="R40" s="9">
+        <v>964</v>
+      </c>
+      <c r="S40" s="9">
+        <v>960</v>
+      </c>
+      <c r="T40" s="9">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="9">
+        <f>31344+39918</f>
+        <v>71262</v>
+      </c>
+      <c r="D41" s="9">
+        <f>30432+40782</f>
+        <v>71214</v>
+      </c>
+      <c r="E41" s="9">
+        <v>72980</v>
+      </c>
+      <c r="F41" s="9">
+        <v>74400</v>
+      </c>
+      <c r="G41" s="9">
+        <f>31900+43913</f>
+        <v>75813</v>
+      </c>
+      <c r="H41" s="9">
+        <f>32115+44889</f>
+        <v>77004</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" ref="I41" si="44">SUM(I37:I40)</f>
+        <v>127290</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" ref="J41" si="45">SUM(J37:J40)</f>
+        <v>124267</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" ref="K41:S41" si="46">SUM(K37:K40)</f>
+        <v>123462</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="46"/>
+        <v>125523</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="46"/>
+        <v>125523</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" si="46"/>
+        <v>118964</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="46"/>
+        <v>119278</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="46"/>
+        <v>117192</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="46"/>
+        <v>118157</v>
+      </c>
+      <c r="S41" s="9">
+        <f t="shared" si="46"/>
+        <v>117542</v>
+      </c>
+      <c r="T41" s="9">
+        <f>SUM(T37:T40)</f>
+        <v>118301</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="10">
+        <v>42208</v>
+      </c>
+      <c r="D42" s="10">
+        <v>44067</v>
+      </c>
+      <c r="E42" s="10">
+        <v>44957</v>
+      </c>
+      <c r="F42" s="10">
+        <v>43854</v>
+      </c>
+      <c r="G42" s="10">
+        <v>44380</v>
+      </c>
+      <c r="H42" s="10">
+        <v>44770</v>
+      </c>
+      <c r="I42" s="10">
+        <v>125443</v>
+      </c>
+      <c r="J42" s="10">
+        <v>109330</v>
+      </c>
+      <c r="K42" s="9">
+        <v>101643</v>
+      </c>
+      <c r="L42" s="9">
+        <v>89452</v>
+      </c>
+      <c r="M42" s="9">
+        <v>89452</v>
+      </c>
+      <c r="N42" s="9">
+        <v>80064</v>
+      </c>
+      <c r="O42" s="9">
+        <v>79355</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9">
+        <v>75758</v>
+      </c>
+      <c r="R42" s="9">
+        <v>75036</v>
+      </c>
+      <c r="S42" s="9">
+        <v>74222</v>
+      </c>
+      <c r="T42" s="9">
+        <v>74221</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5443</v>
+      </c>
+      <c r="F43" s="10">
+        <v>4885</v>
+      </c>
+      <c r="G43" s="10">
+        <v>5261</v>
+      </c>
+      <c r="H43" s="10">
+        <v>5445</v>
+      </c>
+      <c r="I43" s="10">
+        <v>6789</v>
+      </c>
+      <c r="J43" s="10">
+        <v>7050</v>
+      </c>
+      <c r="K43" s="9">
+        <v>3845</v>
+      </c>
+      <c r="L43" s="9">
+        <v>3034</v>
+      </c>
+      <c r="M43" s="9">
+        <v>3034</v>
+      </c>
+      <c r="N43" s="9">
+        <v>2987</v>
+      </c>
+      <c r="O43" s="9">
+        <v>3416</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9">
+        <v>3713</v>
+      </c>
+      <c r="R43" s="9">
+        <v>3899</v>
+      </c>
+      <c r="S43" s="9">
+        <v>4664</v>
+      </c>
+      <c r="T43" s="9">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="10">
+        <v>10309</v>
+      </c>
+      <c r="D44" s="10">
+        <v>10312</v>
+      </c>
+      <c r="E44" s="10">
+        <v>10198</v>
+      </c>
+      <c r="F44" s="10">
+        <v>10201</v>
+      </c>
+      <c r="G44" s="10">
+        <v>10203</v>
+      </c>
+      <c r="H44" s="10">
+        <v>10155</v>
+      </c>
+      <c r="I44" s="10">
+        <v>47583</v>
+      </c>
+      <c r="J44" s="10">
+        <v>38537</v>
+      </c>
+      <c r="K44" s="9">
+        <v>36058</v>
+      </c>
+      <c r="L44" s="9">
+        <v>36034</v>
+      </c>
+      <c r="M44" s="9">
+        <v>36034</v>
+      </c>
+      <c r="N44" s="9">
+        <v>35745</v>
+      </c>
+      <c r="O44" s="9">
+        <v>35466</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9">
+        <v>30915</v>
+      </c>
+      <c r="R44" s="9">
+        <v>29431</v>
+      </c>
+      <c r="S44" s="9">
+        <v>25865</v>
+      </c>
+      <c r="T44" s="9">
+        <v>21743</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="10">
+        <v>20722</v>
+      </c>
+      <c r="D45" s="10">
+        <v>20931</v>
+      </c>
+      <c r="E45" s="10">
+        <v>21493</v>
+      </c>
+      <c r="F45" s="10">
+        <v>21330</v>
+      </c>
+      <c r="G45" s="10">
+        <v>21236</v>
+      </c>
+      <c r="H45" s="10">
+        <v>21347</v>
+      </c>
+      <c r="I45" s="10">
+        <v>36080</v>
+      </c>
+      <c r="J45" s="10">
+        <v>34232</v>
+      </c>
+      <c r="K45" s="9">
+        <v>31295</v>
+      </c>
+      <c r="L45" s="9">
+        <v>23346</v>
+      </c>
+      <c r="M45" s="9">
+        <v>23346</v>
+      </c>
+      <c r="N45" s="9">
+        <v>18573</v>
+      </c>
+      <c r="O45" s="9">
+        <v>18300</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9">
+        <v>18873</v>
+      </c>
+      <c r="R45" s="9">
+        <v>20327</v>
+      </c>
+      <c r="S45" s="9">
+        <v>24907</v>
+      </c>
+      <c r="T45" s="9">
+        <v>27830</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="10">
+        <v>42808</v>
+      </c>
+      <c r="D46" s="10">
+        <v>44067</v>
+      </c>
+      <c r="E46" s="10">
+        <v>44957</v>
+      </c>
+      <c r="F46" s="10">
+        <v>43854</v>
+      </c>
+      <c r="G46" s="10">
+        <v>44380</v>
+      </c>
+      <c r="H46" s="10">
+        <v>44770</v>
+      </c>
+      <c r="I46" s="10">
+        <v>125443</v>
+      </c>
+      <c r="J46" s="10">
+        <v>109330</v>
+      </c>
+      <c r="K46" s="9">
+        <v>101643</v>
+      </c>
+      <c r="L46" s="9">
+        <v>89452</v>
+      </c>
+      <c r="M46" s="9">
+        <v>89452</v>
+      </c>
+      <c r="N46" s="9">
+        <v>80064</v>
+      </c>
+      <c r="O46" s="9">
+        <v>79355</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9">
+        <v>75758</v>
+      </c>
+      <c r="R46" s="9">
+        <v>75036</v>
+      </c>
+      <c r="S46" s="9">
+        <v>74222</v>
+      </c>
+      <c r="T46" s="9">
+        <v>74221</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" ref="Q50:T50" si="47">R44/Q44-1</f>
+        <v>-4.8002587740578972E-2</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="47"/>
+        <v>-0.12116475824810569</v>
+      </c>
+      <c r="T50" s="7">
+        <f>T44/S44-1</f>
+        <v>-0.1593659385269669</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="B51" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="1048576" spans="23:23">
+      <c r="W1048576" s="3">
+        <f>X1048576-SUM(C1048576:E1048576)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E5E96F06-33C3-41D8-A9BD-1B4357904D6C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="T41" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301805C-3D28-4BFB-B095-5A7FB23983DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4284480E-AB3B-4728-A675-5984A231611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -311,6 +311,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -334,15 +335,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>617220</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -356,9 +357,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12830175" y="9525"/>
-          <a:ext cx="19050" cy="8477250"/>
+        <a:xfrm flipH="1">
+          <a:off x="12915900" y="76200"/>
+          <a:ext cx="7620" cy="8755380"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -653,11 +654,11 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="13:14">
@@ -720,26 +721,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74529DB0-8571-4B43-9BC5-196479CE57DE}">
   <dimension ref="A1:AK1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomRight" activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="9.140625" style="3"/>
-    <col min="25" max="25" width="9.28515625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.109375" style="3"/>
+    <col min="14" max="14" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" style="3"/>
+    <col min="18" max="18" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="3"/>
+    <col min="20" max="20" width="9.109375" style="3" customWidth="1"/>
+    <col min="21" max="24" width="9.109375" style="3"/>
+    <col min="25" max="25" width="9.33203125" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -859,9 +862,6 @@
       <c r="U2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="3">
-        <v>2021</v>
-      </c>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="3" t="s">
@@ -912,6 +912,9 @@
       <c r="Q3" s="3">
         <v>3822</v>
       </c>
+      <c r="R3" s="3">
+        <v>8395</v>
+      </c>
       <c r="S3" s="3">
         <v>4799</v>
       </c>
@@ -969,6 +972,9 @@
       <c r="Q4" s="3">
         <v>732</v>
       </c>
+      <c r="R4" s="3">
+        <v>3528</v>
+      </c>
       <c r="S4" s="3">
         <v>760</v>
       </c>
@@ -1026,6 +1032,9 @@
       <c r="Q5" s="3">
         <v>475</v>
       </c>
+      <c r="R5" s="3">
+        <v>1584</v>
+      </c>
       <c r="S5" s="3">
         <v>513</v>
       </c>
@@ -1083,6 +1092,9 @@
       <c r="Q6" s="3">
         <v>27</v>
       </c>
+      <c r="R6" s="3">
+        <v>-20</v>
+      </c>
       <c r="S6" s="3">
         <v>3</v>
       </c>
@@ -1140,6 +1152,9 @@
       <c r="Q7" s="3">
         <v>1395</v>
       </c>
+      <c r="R7" s="3">
+        <v>-2125</v>
+      </c>
       <c r="S7" s="3">
         <v>1683</v>
       </c>
@@ -1197,6 +1212,9 @@
       <c r="Q8" s="3">
         <v>690</v>
       </c>
+      <c r="R8" s="3">
+        <v>-1535</v>
+      </c>
       <c r="S8" s="3">
         <v>747</v>
       </c>
@@ -1255,6 +1273,9 @@
       <c r="Q9" s="3">
         <v>-261</v>
       </c>
+      <c r="R9" s="3">
+        <v>-336</v>
+      </c>
       <c r="S9" s="3">
         <v>-292</v>
       </c>
@@ -1329,7 +1350,7 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9491</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="6"/>
@@ -1339,6 +1360,7 @@
         <f>SUM(T3:T9)</f>
         <v>10351</v>
       </c>
+      <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1">
       <c r="B11" s="6" t="s">
@@ -1388,6 +1410,9 @@
       </c>
       <c r="Q11" s="6">
         <v>6815</v>
+      </c>
+      <c r="R11" s="6">
+        <v>8010</v>
       </c>
       <c r="S11" s="6">
         <v>8533</v>
@@ -1404,6 +1429,22 @@
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:F13" si="7">0.13*C17</f>
+        <v>369.33000000000004</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="7"/>
+        <v>397.67</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="7"/>
+        <v>478.92</v>
+      </c>
+      <c r="F13" s="9">
+        <f>0.13*F17</f>
+        <v>529.49</v>
+      </c>
       <c r="G13" s="3">
         <v>645</v>
       </c>
@@ -1436,6 +1477,9 @@
       </c>
       <c r="Q13" s="3">
         <v>829</v>
+      </c>
+      <c r="R13" s="3">
+        <v>843</v>
       </c>
       <c r="S13" s="3">
         <v>864</v>
@@ -1449,6 +1493,22 @@
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:F14" si="8">C17*0.044</f>
+        <v>125.00399999999999</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="8"/>
+        <v>134.596</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="8"/>
+        <v>162.096</v>
+      </c>
+      <c r="F14" s="10">
+        <f>F17*0.044</f>
+        <v>179.21199999999999</v>
+      </c>
       <c r="G14" s="3">
         <v>31</v>
       </c>
@@ -1481,6 +1541,9 @@
       </c>
       <c r="Q14" s="3">
         <v>360</v>
+      </c>
+      <c r="R14" s="3">
+        <v>366</v>
       </c>
       <c r="S14" s="3">
         <v>347</v>
@@ -1494,6 +1557,22 @@
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:F15" si="9">0.11*C17</f>
+        <v>312.51</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="9"/>
+        <v>336.49</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="9"/>
+        <v>405.24</v>
+      </c>
+      <c r="F15" s="9">
+        <f>0.11*F17</f>
+        <v>448.03000000000003</v>
+      </c>
       <c r="G15" s="3">
         <v>669</v>
       </c>
@@ -1526,6 +1605,9 @@
       </c>
       <c r="Q15" s="3">
         <v>731</v>
+      </c>
+      <c r="R15" s="3">
+        <v>771</v>
       </c>
       <c r="S15" s="3">
         <v>818</v>
@@ -1539,6 +1621,22 @@
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C16" s="10">
+        <f t="shared" ref="C16:E16" si="10">0.04*C17</f>
+        <v>113.64</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="10"/>
+        <v>122.36</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="10"/>
+        <v>147.36000000000001</v>
+      </c>
+      <c r="F16" s="10">
+        <f>0.04*F17</f>
+        <v>162.92000000000002</v>
+      </c>
       <c r="G16" s="3">
         <v>140</v>
       </c>
@@ -1571,6 +1669,9 @@
       </c>
       <c r="Q16" s="3">
         <v>240</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-112</v>
       </c>
       <c r="S16" s="3">
         <v>196</v>
@@ -1629,6 +1730,9 @@
       <c r="Q17" s="3">
         <v>5735</v>
       </c>
+      <c r="R17" s="3">
+        <v>6120</v>
+      </c>
       <c r="S17" s="3">
         <f>5774-324</f>
         <v>5450</v>
@@ -1643,11 +1747,11 @@
         <v>25</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18" si="7">C11-C17</f>
+        <f t="shared" ref="C18" si="11">C11-C17</f>
         <v>984</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:F18" si="8">D11-D17</f>
+        <f t="shared" ref="D18:F18" si="12">D11-D17</f>
         <v>1072</v>
       </c>
       <c r="E18" s="3">
@@ -1655,59 +1759,59 @@
         <v>2492</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>729</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18" si="9">G11-G17</f>
+        <f t="shared" ref="G18" si="13">G11-G17</f>
         <v>783</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" ref="H18" si="10">H11-H17</f>
+        <f t="shared" ref="H18" si="14">H11-H17</f>
         <v>844</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" ref="I18" si="11">I11-I17</f>
+        <f t="shared" ref="I18" si="15">I11-I17</f>
         <v>-692</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18" si="12">J11-J17</f>
+        <f t="shared" ref="J18" si="16">J11-J17</f>
         <v>-1187</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" ref="K18:S18" si="13">K11-K17</f>
+        <f t="shared" ref="K18:S18" si="17">K11-K17</f>
         <v>-1377</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-8301</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-4269</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-1705</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-205</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>187</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1080</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1890</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3083</v>
       </c>
       <c r="T18" s="3">
@@ -1720,71 +1824,71 @@
         <v>26</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19" si="14">C18-C20</f>
+        <f t="shared" ref="C19" si="18">C18-C20</f>
         <v>276</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:F19" si="15">D18-D20</f>
+        <f t="shared" ref="D19:F19" si="19">D18-D20</f>
         <v>224</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ref="E19:F19" si="16">E18-E20</f>
+        <f t="shared" ref="E19" si="20">E18-E20</f>
         <v>623</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ref="G19" si="17">G18-G20</f>
+        <f t="shared" ref="G19" si="21">G18-G20</f>
         <v>152</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" ref="H19" si="18">H18-H20</f>
+        <f t="shared" ref="H19" si="22">H18-H20</f>
         <v>209</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" ref="I19" si="19">I18-I20</f>
+        <f t="shared" ref="I19" si="23">I18-I20</f>
         <v>60</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19" si="20">J18-J20</f>
+        <f t="shared" ref="J19" si="24">J18-J20</f>
         <v>-151</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" ref="K19:S19" si="21">K18-K20</f>
+        <f t="shared" ref="K19:S19" si="25">K18-K20</f>
         <v>636</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>52</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-694</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-815</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-59</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>44</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>252</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>393</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-1593</v>
       </c>
       <c r="T19" s="3">
@@ -1841,6 +1945,9 @@
       <c r="Q20" s="3">
         <v>828</v>
       </c>
+      <c r="R20" s="3">
+        <v>1497</v>
+      </c>
       <c r="S20" s="3">
         <v>4676</v>
       </c>
@@ -1898,6 +2005,9 @@
       <c r="Q21" s="3">
         <v>0.67</v>
       </c>
+      <c r="R21" s="3">
+        <v>1.86</v>
+      </c>
       <c r="S21" s="3">
         <v>4.6500000000000004</v>
       </c>
@@ -1948,6 +2058,9 @@
       </c>
       <c r="O22" s="3">
         <v>933</v>
+      </c>
+      <c r="R22" s="3">
+        <v>934</v>
       </c>
       <c r="T22" s="3">
         <v>931</v>
@@ -1987,66 +2100,72 @@
       <c r="B27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7">
+        <f t="shared" ref="C27" si="26">C18/C11</f>
+        <v>0.25725490196078432</v>
+      </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27:F27" si="22">D18/D11</f>
+        <f t="shared" ref="D27:F27" si="27">D18/D11</f>
         <v>0.25950133139675624</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.40349740932642486</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.15181174510620574</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" ref="G27:J27" si="23">G18/G11</f>
+        <f t="shared" ref="G27:J27" si="28">G18/G11</f>
         <v>0.19148936170212766</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.18856121537086684</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>-0.11786748424459206</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>-0.16229149576155319</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" ref="K27:N27" si="24">K18/K11</f>
+        <f t="shared" ref="K27:N27" si="29">K18/K11</f>
         <v>-0.2134552782514339</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-2.7893145161290325</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1.300335059396893</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-0.48014643762320475</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" ref="O27:Q27" si="25">O18/O11</f>
+        <f t="shared" ref="O27:Q27" si="30">O18/O11</f>
         <v>-3.7415586785909838E-2</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>3.1114808652246258E-2</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.15847395451210564</v>
       </c>
-      <c r="R27" s="7"/>
+      <c r="R27" s="7">
+        <f t="shared" ref="R27" si="31">R18/R11</f>
+        <v>0.23595505617977527</v>
+      </c>
       <c r="S27" s="7">
-        <f t="shared" ref="S27:T27" si="26">S18/S11</f>
+        <f t="shared" ref="S27" si="32">S18/S11</f>
         <v>0.3613031759053088</v>
       </c>
       <c r="T27" s="7">
@@ -2058,66 +2177,72 @@
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28" si="33">C19/C18</f>
+        <v>0.28048780487804881</v>
+      </c>
       <c r="D28" s="7">
-        <f t="shared" ref="D28:J28" si="27">D19/D18</f>
+        <f t="shared" ref="D28:J28" si="34">D19/D18</f>
         <v>0.20895522388059701</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>3.1550068587105622E-2</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.19412515964240101</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28" si="28">H19/H18</f>
+        <f t="shared" ref="H28" si="35">H19/H18</f>
         <v>0.24763033175355451</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>-8.6705202312138727E-2</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0.12721145745577084</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" ref="K28:T28" si="29">K19/K18</f>
+        <f t="shared" ref="K28:S28" si="36">K19/K18</f>
         <v>-0.46187363834422657</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>-6.2643055053607996E-3</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.16256734598266573</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" ref="N28" si="30">N19/N18</f>
+        <f t="shared" ref="N28" si="37">N19/N18</f>
         <v>0.47800586510263932</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.28780487804878047</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="R28" s="7"/>
+      <c r="R28" s="7">
+        <f t="shared" ref="R28" si="38">R19/R18</f>
+        <v>0.20793650793650795</v>
+      </c>
       <c r="S28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>-0.51670450859552386</v>
       </c>
       <c r="T28" s="7">
@@ -2130,77 +2255,74 @@
         <v>30</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" ref="C30" si="31">C31-C44</f>
+        <f t="shared" ref="C30" si="39">C31-C44</f>
         <v>-8703</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30" si="32">D31-D44</f>
+        <f t="shared" ref="D30" si="40">D31-D44</f>
         <v>-8950</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" ref="E30" si="33">E31-E44</f>
+        <f t="shared" ref="E30" si="41">E31-E44</f>
         <v>-7244</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30" si="34">F31-F44</f>
+        <f t="shared" ref="F30" si="42">F31-F44</f>
         <v>-7168</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" ref="G30" si="35">G31-G44</f>
+        <f t="shared" ref="G30" si="43">G31-G44</f>
         <v>-8451</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30" si="36">H31-H44</f>
+        <f t="shared" ref="H30" si="44">H31-H44</f>
         <v>-8404</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ref="I30" si="37">I31-I44</f>
+        <f t="shared" ref="I30" si="45">I31-I44</f>
         <v>-42289</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" ref="J30" si="38">J31-J44</f>
+        <f t="shared" ref="J30" si="46">J31-J44</f>
         <v>-35020</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" ref="K30:S30" si="39">K31-K44</f>
+        <f t="shared" ref="K30:S30" si="47">K31-K44</f>
         <v>-33795</v>
       </c>
-      <c r="L30" s="9">
-        <f t="shared" si="39"/>
-        <v>-34899</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="39"/>
-        <v>-34899</v>
-      </c>
+      <c r="M30" s="9"/>
       <c r="N30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-33567</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-33013</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-28636</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-26667</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>-23956</v>
       </c>
       <c r="T30" s="9">
         <f>T31-T44</f>
         <v>-20381</v>
       </c>
+      <c r="V30" s="9">
+        <f>V31-V44</f>
+        <v>-34899</v>
+      </c>
     </row>
     <row r="31" spans="2:37">
       <c r="B31" s="5" t="s">
@@ -2236,14 +2358,7 @@
         <f>2021+242</f>
         <v>2263</v>
       </c>
-      <c r="L31" s="10">
-        <f>1011+124</f>
-        <v>1135</v>
-      </c>
-      <c r="M31" s="9">
-        <f>1011+124</f>
-        <v>1135</v>
-      </c>
+      <c r="M31" s="9"/>
       <c r="N31" s="9">
         <f>2008+170</f>
         <v>2178</v>
@@ -2266,6 +2381,10 @@
       <c r="T31" s="9">
         <v>1362</v>
       </c>
+      <c r="V31" s="10">
+        <f>1011+124</f>
+        <v>1135</v>
+      </c>
     </row>
     <row r="32" spans="2:37">
       <c r="B32" s="5" t="s">
@@ -2298,12 +2417,7 @@
       <c r="K32" s="9">
         <v>2458</v>
       </c>
-      <c r="L32" s="9">
-        <v>2359</v>
-      </c>
-      <c r="M32" s="9">
-        <v>2359</v>
-      </c>
+      <c r="M32" s="9"/>
       <c r="N32" s="9">
         <v>2115</v>
       </c>
@@ -2323,8 +2437,11 @@
       <c r="T32" s="9">
         <v>6350</v>
       </c>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="V32" s="9">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
@@ -2355,12 +2472,7 @@
       <c r="K33" s="9">
         <v>1436</v>
       </c>
-      <c r="L33" s="9">
-        <v>1477</v>
-      </c>
-      <c r="M33" s="9">
-        <v>1477</v>
-      </c>
+      <c r="M33" s="9"/>
       <c r="N33" s="9">
         <v>1898</v>
       </c>
@@ -2380,8 +2492,11 @@
       <c r="T33" s="9">
         <v>1564</v>
       </c>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="V33" s="9">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
@@ -2412,12 +2527,7 @@
       <c r="K34" s="9">
         <v>5732</v>
       </c>
-      <c r="L34" s="9">
-        <v>1412</v>
-      </c>
-      <c r="M34" s="9">
-        <v>1412</v>
-      </c>
+      <c r="M34" s="9"/>
       <c r="N34" s="9">
         <v>1433</v>
       </c>
@@ -2437,8 +2547,11 @@
       <c r="T34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="V34" s="9">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35" s="5" t="s">
         <v>34</v>
       </c>
@@ -2469,12 +2582,7 @@
       <c r="K35" s="9">
         <v>14109</v>
       </c>
-      <c r="L35" s="9">
-        <v>8437</v>
-      </c>
-      <c r="M35" s="9">
-        <v>3437</v>
-      </c>
+      <c r="M35" s="9"/>
       <c r="N35" s="9">
         <v>8819</v>
       </c>
@@ -2494,8 +2602,11 @@
       <c r="T35" s="9">
         <v>10408</v>
       </c>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="V35" s="9">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36" s="5" t="s">
         <v>35</v>
       </c>
@@ -2526,12 +2637,7 @@
       <c r="K36" s="9">
         <v>6050</v>
       </c>
-      <c r="L36" s="9">
-        <v>6128</v>
-      </c>
-      <c r="M36" s="9">
-        <v>6128</v>
-      </c>
+      <c r="M36" s="9"/>
       <c r="N36" s="9">
         <v>3250</v>
       </c>
@@ -2551,29 +2657,32 @@
       <c r="T36" s="9">
         <v>3328</v>
       </c>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="V36" s="9">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:H37" si="40">0.84*C41</f>
+        <f t="shared" ref="C37:G37" si="48">0.84*C41</f>
         <v>59860.079999999994</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>59819.759999999995</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>61303.199999999997</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>62496</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>63682.92</v>
       </c>
       <c r="H37" s="9">
@@ -2589,12 +2698,7 @@
       <c r="K37" s="9">
         <v>107014</v>
       </c>
-      <c r="L37" s="9">
-        <v>109026</v>
-      </c>
-      <c r="M37" s="9">
-        <v>109026</v>
-      </c>
+      <c r="M37" s="9"/>
       <c r="N37" s="9">
         <v>102454</v>
       </c>
@@ -2614,29 +2718,32 @@
       <c r="T37" s="9">
         <v>102122</v>
       </c>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="V37" s="9">
+        <v>109026</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ref="C38:H38" si="41">0.06*C41</f>
+        <f t="shared" ref="C38:G38" si="49">0.06*C41</f>
         <v>4275.72</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>4272.84</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>4378.8</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>4464</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>4548.78</v>
       </c>
       <c r="H38" s="9">
@@ -2652,12 +2759,7 @@
       <c r="K38" s="9">
         <v>7187</v>
       </c>
-      <c r="L38" s="9">
-        <v>7204</v>
-      </c>
-      <c r="M38" s="9">
-        <v>7204</v>
-      </c>
+      <c r="M38" s="9"/>
       <c r="N38" s="9">
         <v>7356</v>
       </c>
@@ -2677,29 +2779,32 @@
       <c r="T38" s="9">
         <v>7629</v>
       </c>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="V38" s="9">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
       <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="9">
-        <f t="shared" ref="C39:H39" si="42">0.07*C41</f>
+        <f t="shared" ref="C39:G39" si="50">0.07*C41</f>
         <v>4988.34</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>4984.9800000000005</v>
       </c>
       <c r="E39" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>5108.6000000000004</v>
       </c>
       <c r="F39" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>5208.0000000000009</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>5306.9100000000008</v>
       </c>
       <c r="H39" s="9">
@@ -2715,12 +2820,7 @@
       <c r="K39" s="9">
         <v>8189</v>
       </c>
-      <c r="L39" s="9">
-        <v>8210</v>
-      </c>
-      <c r="M39" s="9">
-        <v>8210</v>
-      </c>
+      <c r="M39" s="9"/>
       <c r="N39" s="9">
         <v>8232</v>
       </c>
@@ -2740,29 +2840,32 @@
       <c r="T39" s="9">
         <v>7577</v>
       </c>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="V39" s="9">
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
       <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" ref="C40:G40" si="43">0.01*C41</f>
+        <f t="shared" ref="C40:G40" si="51">0.01*C41</f>
         <v>712.62</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>712.14</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>729.80000000000007</v>
       </c>
       <c r="F40" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>744</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>758.13</v>
       </c>
       <c r="H40" s="9">
@@ -2778,12 +2881,7 @@
       <c r="K40" s="9">
         <v>1072</v>
       </c>
-      <c r="L40" s="9">
-        <v>1083</v>
-      </c>
-      <c r="M40" s="9">
-        <v>1083</v>
-      </c>
+      <c r="M40" s="9"/>
       <c r="N40" s="9">
         <v>922</v>
       </c>
@@ -2803,8 +2901,11 @@
       <c r="T40" s="9">
         <v>973</v>
       </c>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="V40" s="9">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
       <c r="B41" s="5" t="s">
         <v>36</v>
       </c>
@@ -2831,55 +2932,52 @@
         <v>77004</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41" si="44">SUM(I37:I40)</f>
+        <f t="shared" ref="I41" si="52">SUM(I37:I40)</f>
         <v>127290</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" ref="J41" si="45">SUM(J37:J40)</f>
+        <f t="shared" ref="J41" si="53">SUM(J37:J40)</f>
         <v>124267</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" ref="K41:S41" si="46">SUM(K37:K40)</f>
+        <f t="shared" ref="K41:S41" si="54">SUM(K37:K40)</f>
         <v>123462</v>
       </c>
-      <c r="L41" s="9">
-        <f t="shared" si="46"/>
-        <v>125523</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="46"/>
-        <v>125523</v>
-      </c>
+      <c r="M41" s="9"/>
       <c r="N41" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>118964</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>119278</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>117192</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>118157</v>
       </c>
       <c r="S41" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>117542</v>
       </c>
       <c r="T41" s="9">
         <f>SUM(T37:T40)</f>
         <v>118301</v>
       </c>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="V41" s="9">
+        <f>SUM(V37:V40)</f>
+        <v>125523</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
       <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
@@ -2910,12 +3008,7 @@
       <c r="K42" s="9">
         <v>101643</v>
       </c>
-      <c r="L42" s="9">
-        <v>89452</v>
-      </c>
-      <c r="M42" s="9">
-        <v>89452</v>
-      </c>
+      <c r="M42" s="9"/>
       <c r="N42" s="9">
         <v>80064</v>
       </c>
@@ -2935,8 +3028,11 @@
       <c r="T42" s="9">
         <v>74221</v>
       </c>
-    </row>
-    <row r="43" spans="2:20">
+      <c r="V42" s="9">
+        <v>89452</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
       <c r="B43" s="5" t="s">
         <v>40</v>
       </c>
@@ -2967,12 +3063,7 @@
       <c r="K43" s="9">
         <v>3845</v>
       </c>
-      <c r="L43" s="9">
-        <v>3034</v>
-      </c>
-      <c r="M43" s="9">
-        <v>3034</v>
-      </c>
+      <c r="M43" s="9"/>
       <c r="N43" s="9">
         <v>2987</v>
       </c>
@@ -2992,8 +3083,11 @@
       <c r="T43" s="9">
         <v>5197</v>
       </c>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="V43" s="9">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
       <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
@@ -3024,12 +3118,7 @@
       <c r="K44" s="9">
         <v>36058</v>
       </c>
-      <c r="L44" s="9">
-        <v>36034</v>
-      </c>
-      <c r="M44" s="9">
-        <v>36034</v>
-      </c>
+      <c r="M44" s="9"/>
       <c r="N44" s="9">
         <v>35745</v>
       </c>
@@ -3049,8 +3138,11 @@
       <c r="T44" s="9">
         <v>21743</v>
       </c>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="V44" s="9">
+        <v>36034</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
       <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
@@ -3081,12 +3173,7 @@
       <c r="K45" s="9">
         <v>31295</v>
       </c>
-      <c r="L45" s="9">
-        <v>23346</v>
-      </c>
-      <c r="M45" s="9">
-        <v>23346</v>
-      </c>
+      <c r="M45" s="9"/>
       <c r="N45" s="9">
         <v>18573</v>
       </c>
@@ -3106,8 +3193,11 @@
       <c r="T45" s="9">
         <v>27830</v>
       </c>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="V45" s="9">
+        <v>23346</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
       <c r="B46" s="5" t="s">
         <v>42</v>
       </c>
@@ -3138,12 +3228,7 @@
       <c r="K46" s="9">
         <v>101643</v>
       </c>
-      <c r="L46" s="9">
-        <v>89452</v>
-      </c>
-      <c r="M46" s="9">
-        <v>89452</v>
-      </c>
+      <c r="M46" s="9"/>
       <c r="N46" s="9">
         <v>80064</v>
       </c>
@@ -3163,8 +3248,11 @@
       <c r="T46" s="9">
         <v>74221</v>
       </c>
-    </row>
-    <row r="48" spans="2:20">
+      <c r="V46" s="9">
+        <v>89452</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
       <c r="B48" s="5" t="s">
         <v>56</v>
       </c>
@@ -3174,16 +3262,72 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="2:20" s="7" customFormat="1">
+      <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="R50" s="3">
-        <f t="shared" ref="Q50:T50" si="47">R44/Q44-1</f>
+      <c r="D50" s="7">
+        <f t="shared" ref="D50" si="55">D44/C44-1</f>
+        <v>2.9100785721225542E-4</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" ref="E50" si="56">E44/D44-1</f>
+        <v>-1.1055081458494986E-2</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" ref="F50" si="57">F44/E44-1</f>
+        <v>2.9417532849573824E-4</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" ref="G50" si="58">G44/F44-1</f>
+        <v>1.9605920988130521E-4</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" ref="H50" si="59">H44/G44-1</f>
+        <v>-4.7044986768597363E-3</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" ref="I50" si="60">I44/H44-1</f>
+        <v>3.6856720827178728</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" ref="J50" si="61">J44/I44-1</f>
+        <v>-0.1901099132042956</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" ref="K50" si="62">K44/J44-1</f>
+        <v>-6.4327788878220882E-2</v>
+      </c>
+      <c r="L50" s="7">
+        <f>V44/K44-1</f>
+        <v>-6.6559432026180865E-4</v>
+      </c>
+      <c r="M50" s="7">
+        <f>M44/V44-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N50" s="7" t="e">
+        <f t="shared" ref="N50" si="63">N44/M44-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="7">
+        <f t="shared" ref="O50" si="64">O44/N44-1</f>
+        <v>-7.8052874527906324E-3</v>
+      </c>
+      <c r="P50" s="7">
+        <f t="shared" ref="P50" si="65">P44/O44-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="7" t="e">
+        <f t="shared" ref="Q50" si="66">Q44/P44-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" s="7">
+        <f t="shared" ref="R50:S50" si="67">R44/Q44-1</f>
         <v>-4.8002587740578972E-2</v>
       </c>
-      <c r="S50" s="3">
-        <f t="shared" si="47"/>
+      <c r="S50" s="7">
+        <f t="shared" si="67"/>
         <v>-0.12116475824810569</v>
       </c>
       <c r="T50" s="7">

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4284480E-AB3B-4728-A675-5984A231611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC327B-8075-41F0-B191-D4BC39D94ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Shares</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Q118</t>
   </si>
   <si>
-    <t>Net Cash Y/Y</t>
-  </si>
-  <si>
     <t>Tax Rate (%)</t>
   </si>
   <si>
@@ -223,19 +220,79 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Oil Y/Y</t>
+  </si>
+  <si>
+    <t>Oil %</t>
+  </si>
+  <si>
+    <t>NGL %</t>
+  </si>
+  <si>
+    <t>Gas %</t>
+  </si>
+  <si>
+    <t>Chemical %</t>
+  </si>
+  <si>
+    <t>Shares Q/Q</t>
+  </si>
+  <si>
+    <t>Cash Y/Y</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Total Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -285,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -293,25 +350,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -342,7 +475,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -360,6 +493,56 @@
         <a:xfrm flipH="1">
           <a:off x="12915900" y="76200"/>
           <a:ext cx="7620" cy="8755380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92DF30A-7D5E-0FC8-C6FD-C506B7181D99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="30537150" y="19050"/>
+          <a:ext cx="9525" cy="9696450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -654,11 +837,11 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="13:14">
@@ -719,35 +902,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74529DB0-8571-4B43-9BC5-196479CE57DE}">
-  <dimension ref="A1:AK1048576"/>
+  <dimension ref="A1:DF61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T52" sqref="T52"/>
+      <selection pane="bottomRight" activeCell="BA31" sqref="BA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.109375" style="3"/>
-    <col min="14" max="14" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" style="3"/>
-    <col min="18" max="18" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="3"/>
-    <col min="20" max="20" width="9.109375" style="3" customWidth="1"/>
-    <col min="21" max="24" width="9.109375" style="3"/>
-    <col min="25" max="25" width="9.33203125" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="3"/>
+    <col min="2" max="2" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="9.28515625" style="3" customWidth="1"/>
+    <col min="26" max="52" width="9.140625" style="3"/>
+    <col min="53" max="53" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:110">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4">
         <v>43190</v>
@@ -758,6 +945,9 @@
       <c r="E1" s="4">
         <v>43373</v>
       </c>
+      <c r="F1" s="4">
+        <v>43465</v>
+      </c>
       <c r="G1" s="4">
         <v>43555</v>
       </c>
@@ -804,7 +994,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:110">
       <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
@@ -862,2525 +1052,5163 @@
       <c r="U2" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="B3" s="3" t="s">
+      <c r="V2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>2001</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>AC2+1</f>
+        <v>2002</v>
+      </c>
+      <c r="AE2" s="3">
+        <f t="shared" ref="AE2:CP2" si="0">AD2+1</f>
+        <v>2003</v>
+      </c>
+      <c r="AF2" s="3">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="AG2" s="3">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="AH2" s="3">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="AI2" s="3">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="AK2" s="3">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="AL2" s="3">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="AM2" s="3">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="AN2" s="3">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="AO2" s="3">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="AP2" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="AQ2" s="3">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="AR2" s="3">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="AS2" s="3">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="AT2" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="AU2" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="AV2" s="3">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="AW2" s="3">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AX2" s="3">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AY2" s="3">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AZ2" s="3">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="BA2" s="3">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="BB2" s="3">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="BC2" s="3">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="BD2" s="3">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="BE2" s="3">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="BF2" s="3">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="BG2" s="3">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="BH2" s="3">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="BI2" s="3">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="BJ2" s="3">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="BK2" s="3">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="BL2" s="3">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="BM2" s="3">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="BN2" s="3">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="BO2" s="3">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="BP2" s="3">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="BQ2" s="3">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="BR2" s="3">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="BS2" s="3">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="BT2" s="3">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="BU2" s="3">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="BV2" s="3">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="BW2" s="3">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="BX2" s="3">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="BY2" s="3">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="BZ2" s="3">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="CA2" s="3">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="CB2" s="3">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="CC2" s="3">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="CD2" s="3">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="CE2" s="3">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="CF2" s="3">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="CG2" s="3">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="CH2" s="3">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="CI2" s="3">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="CJ2" s="3">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="CK2" s="3">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="CL2" s="3">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="CM2" s="3">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="CN2" s="3">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="CO2" s="3">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="CP2" s="3">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+      <c r="CQ2" s="3">
+        <f t="shared" ref="CQ2:DF2" si="1">CP2+1</f>
+        <v>2067</v>
+      </c>
+      <c r="CR2" s="3">
+        <f t="shared" si="1"/>
+        <v>2068</v>
+      </c>
+      <c r="CS2" s="3">
+        <f t="shared" si="1"/>
+        <v>2069</v>
+      </c>
+      <c r="CT2" s="3">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+      <c r="CU2" s="3">
+        <f t="shared" si="1"/>
+        <v>2071</v>
+      </c>
+      <c r="CV2" s="3">
+        <f t="shared" si="1"/>
+        <v>2072</v>
+      </c>
+      <c r="CW2" s="3">
+        <f t="shared" si="1"/>
+        <v>2073</v>
+      </c>
+      <c r="CX2" s="3">
+        <f t="shared" si="1"/>
+        <v>2074</v>
+      </c>
+      <c r="CY2" s="3">
+        <f t="shared" si="1"/>
+        <v>2075</v>
+      </c>
+      <c r="CZ2" s="3">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+      <c r="DA2" s="3">
+        <f t="shared" si="1"/>
+        <v>2077</v>
+      </c>
+      <c r="DB2" s="3">
+        <f t="shared" si="1"/>
+        <v>2078</v>
+      </c>
+      <c r="DC2" s="3">
+        <f t="shared" si="1"/>
+        <v>2079</v>
+      </c>
+      <c r="DD2" s="3">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="DE2" s="3">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="DF2" s="3">
+        <f t="shared" si="1"/>
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:110" s="9" customFormat="1">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>2190</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>2232</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>2539</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>2284</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>2098</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>2484</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>3313</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>4455</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>3351</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>1621</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>2319</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>2597</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="9">
         <v>3013</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="9">
         <v>3711</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="9">
         <v>3822</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="9">
         <v>8395</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="9">
         <v>4799</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="9">
         <v>6040</v>
       </c>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="B4" s="3" t="s">
+      <c r="U3" s="9">
+        <f>U10*0.61</f>
+        <v>8280.7814760000001</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:X3" si="2">V10*0.61</f>
+        <v>10930.63154832</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" si="2"/>
+        <v>14428.4336437824</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" si="2"/>
+        <v>19045.53240979277</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="AQ3" s="9">
+        <v>8304</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>6377</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>7870</v>
+      </c>
+      <c r="AT3" s="9">
+        <f>SUM(C3:F3)</f>
+        <v>9245</v>
+      </c>
+      <c r="AU3" s="9">
+        <f>SUM(G3:J3)</f>
+        <v>12350</v>
+      </c>
+      <c r="AV3" s="9">
+        <f>SUM(K3:N3)</f>
+        <v>9888</v>
+      </c>
+      <c r="AW3" s="9">
+        <f>SUM(O3:R3)</f>
+        <v>18941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:110" s="9" customFormat="1">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>140</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>175</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="9">
         <v>216</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <v>160</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>143</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <v>152</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <v>240</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>406</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="9">
         <v>268</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="9">
         <v>167</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>305</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>315</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="9">
         <v>436</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="9">
         <v>550</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="9">
         <v>732</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="9">
         <v>3528</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="9">
         <v>760</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="9">
         <v>896</v>
       </c>
-      <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="B5" s="3" t="s">
+      <c r="U4" s="9">
+        <f>U10*0.08</f>
+        <v>1086.004128</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" ref="V4:X4" si="3">V10*0.08</f>
+        <v>1433.5254489600002</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="3"/>
+        <v>1892.2535926272001</v>
+      </c>
+      <c r="X4" s="9">
+        <f t="shared" si="3"/>
+        <v>2497.7747422679045</v>
+      </c>
+      <c r="Y4" s="10"/>
+      <c r="AQ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="9">
+        <f t="shared" ref="AT4:AT9" si="4">SUM(C4:F4)</f>
+        <v>691</v>
+      </c>
+      <c r="AU4" s="9">
+        <f t="shared" ref="AU4:AU9" si="5">SUM(G4:J4)</f>
+        <v>941</v>
+      </c>
+      <c r="AV4" s="9">
+        <f t="shared" ref="AV4:AV9" si="6">SUM(K4:N4)</f>
+        <v>1055</v>
+      </c>
+      <c r="AW4" s="9">
+        <f t="shared" ref="AW4:AW9" si="7">SUM(O4:R4)</f>
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:110" s="9" customFormat="1">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>121</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>118</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>132</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="9">
         <v>124</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>130</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <v>89</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>208</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>336</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="9">
         <v>268</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="9">
         <v>224</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>235</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>259</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="9">
         <v>317</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="9">
         <v>387</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="9">
         <v>475</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="9">
         <v>1584</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="9">
         <v>513</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="9">
         <v>754</v>
       </c>
-      <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="B6" s="3" t="s">
+      <c r="U5" s="9">
+        <f>U10*0.07</f>
+        <v>950.25361200000009</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" ref="V5:X5" si="8">V10*0.07</f>
+        <v>1254.3347678400003</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="8"/>
+        <v>1655.7218935488002</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" si="8"/>
+        <v>2185.5528994844162</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="AQ5" s="9">
+        <v>3945</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>3756</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>4355</v>
+      </c>
+      <c r="AT5" s="9">
+        <f t="shared" si="4"/>
+        <v>495</v>
+      </c>
+      <c r="AU5" s="9">
+        <f t="shared" si="5"/>
+        <v>763</v>
+      </c>
+      <c r="AV5" s="9">
+        <f t="shared" si="6"/>
+        <v>986</v>
+      </c>
+      <c r="AW5" s="9">
+        <f t="shared" si="7"/>
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110" s="9" customFormat="1">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>-1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <v>-20</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>-7</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>-15</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="9">
         <v>36</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="9">
         <v>11</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="9">
         <v>21</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>23</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>11</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="9">
         <v>-31</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="9">
         <v>24</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="9">
         <v>27</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="9">
         <v>-20</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="9">
         <v>3</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="9">
         <v>6</v>
       </c>
-      <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="B7" s="3" t="s">
+      <c r="U6" s="9">
+        <f>U10-(SUM(U3:U5)+SUM(U7:U9))</f>
+        <v>169.68814499999826</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" ref="V6:X6" si="9">V10-(SUM(V3:V5)+SUM(V7:V9))</f>
+        <v>223.98835139999937</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="9"/>
+        <v>295.66462384800252</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" si="9"/>
+        <v>390.27730347935722</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AU6" s="9">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="AV6" s="9">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="AW6" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:110" s="9" customFormat="1">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>1122</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>1170</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>1184</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>1172</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>1055</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="9">
         <v>993</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>1061</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>971</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="9">
         <v>961</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>839</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>939</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>987</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="9">
         <v>1087</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="9">
         <v>1187</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="9">
         <v>1395</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="9">
         <v>-2125</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="9">
         <v>1683</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="9">
         <v>1908</v>
       </c>
-      <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="B8" s="3" t="s">
+      <c r="U7" s="9">
+        <f>U10*0.2</f>
+        <v>2715.0103200000003</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" ref="V7:X7" si="10">V10*0.2</f>
+        <v>3583.8136224000004</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="10"/>
+        <v>4730.6339815680003</v>
+      </c>
+      <c r="X7" s="9">
+        <f t="shared" si="10"/>
+        <v>6244.4368556697609</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="AQ7" s="9">
+        <v>891</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>684</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>1157</v>
+      </c>
+      <c r="AT7" s="9">
+        <f t="shared" si="4"/>
+        <v>4648</v>
+      </c>
+      <c r="AU7" s="9">
+        <f t="shared" si="5"/>
+        <v>4080</v>
+      </c>
+      <c r="AV7" s="9">
+        <f t="shared" si="6"/>
+        <v>3726</v>
+      </c>
+      <c r="AW7" s="9">
+        <f t="shared" si="7"/>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110" s="9" customFormat="1">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>352</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>357</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>409</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>283</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>251</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>225</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="9">
         <v>409</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="9">
         <v>1443</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="9">
         <v>387</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="9">
         <v>598</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>379</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>803</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="9">
         <v>628</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="9">
         <v>474</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="9">
         <v>690</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="9">
         <v>-1535</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="9">
         <v>747</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="9">
         <v>1150</v>
       </c>
-      <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="B9" s="3" t="s">
+      <c r="U8" s="9">
+        <f>U10*0.0325</f>
+        <v>441.18917700000003</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" ref="V8:X8" si="11">V10*0.0325</f>
+        <v>582.3697136400001</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="11"/>
+        <v>768.7280220048001</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" si="11"/>
+        <v>1014.7209890463362</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="AQ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="9">
+        <f t="shared" si="4"/>
+        <v>1401</v>
+      </c>
+      <c r="AU8" s="9">
+        <f t="shared" si="5"/>
+        <v>2328</v>
+      </c>
+      <c r="AV8" s="9">
+        <f t="shared" si="6"/>
+        <v>2167</v>
+      </c>
+      <c r="AW8" s="9">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:110" s="9" customFormat="1">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>-234</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>-227</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>-225</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>-244</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>-222</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>-205</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <f>-368+383</f>
         <v>15</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="9">
         <v>-852</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="9">
         <v>-199</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="9">
         <v>-162</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>-182</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>-215</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="9">
         <v>-266</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="9">
         <v>-231</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="9">
         <v>-261</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="9">
         <v>-336</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="9">
         <v>-292</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="9">
         <v>-403</v>
       </c>
-      <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" s="5" customFormat="1">
-      <c r="B10" s="5" t="s">
+      <c r="U9" s="9">
+        <f>U10*0.005*-1</f>
+        <v>-67.875258000000002</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" ref="V9:X9" si="12">V10*0.005*-1</f>
+        <v>-89.595340560000011</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="12"/>
+        <v>-118.2658495392</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" si="12"/>
+        <v>-156.11092139174403</v>
+      </c>
+      <c r="Y9" s="10"/>
+      <c r="AQ9" s="9">
+        <v>-660</v>
+      </c>
+      <c r="AR9" s="9">
+        <v>-727</v>
+      </c>
+      <c r="AS9" s="9">
+        <v>-874</v>
+      </c>
+      <c r="AT9" s="9">
+        <f t="shared" si="4"/>
+        <v>-930</v>
+      </c>
+      <c r="AU9" s="9">
+        <f t="shared" si="5"/>
+        <v>-1264</v>
+      </c>
+      <c r="AV9" s="9">
+        <f t="shared" si="6"/>
+        <v>-758</v>
+      </c>
+      <c r="AW9" s="9">
+        <f t="shared" si="7"/>
+        <v>-1094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:110" s="10" customFormat="1">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" ref="C10" si="0">SUM(C3:C9)</f>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10" si="13">SUM(C3:C9)</f>
         <v>3694</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" ref="D10:F10" si="1">SUM(D3:D9)</f>
+      <c r="D10" s="10">
+        <f t="shared" ref="D10:F10" si="14">SUM(D3:D9)</f>
         <v>3831</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <f>SUM(E3:E9)</f>
         <v>4257</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
+      <c r="F10" s="10">
+        <f t="shared" si="14"/>
         <v>3778</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" ref="G10" si="2">SUM(G3:G9)</f>
+      <c r="G10" s="10">
+        <f t="shared" ref="G10" si="15">SUM(G3:G9)</f>
         <v>3435</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" ref="H10" si="3">SUM(H3:H9)</f>
+      <c r="H10" s="10">
+        <f t="shared" ref="H10" si="16">SUM(H3:H9)</f>
         <v>3731</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10" si="4">SUM(I3:I9)</f>
+      <c r="I10" s="10">
+        <f t="shared" ref="I10" si="17">SUM(I3:I9)</f>
         <v>5231</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" ref="J10" si="5">SUM(J3:J9)</f>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10" si="18">SUM(J3:J9)</f>
         <v>6795</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" ref="K10:S10" si="6">SUM(K3:K9)</f>
+      <c r="K10" s="10">
+        <f t="shared" ref="K10:S10" si="19">SUM(K3:K9)</f>
         <v>5047</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="10">
         <f>SUM(L3:L9)</f>
         <v>3308</v>
       </c>
-      <c r="M10" s="5">
-        <f t="shared" si="6"/>
+      <c r="M10" s="10">
+        <f t="shared" si="19"/>
         <v>4018</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" si="6"/>
+      <c r="N10" s="10">
+        <f t="shared" si="19"/>
         <v>4757</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" si="6"/>
+      <c r="O10" s="10">
+        <f t="shared" si="19"/>
         <v>5184</v>
       </c>
-      <c r="P10" s="5">
-        <f t="shared" si="6"/>
+      <c r="P10" s="10">
+        <f t="shared" si="19"/>
         <v>6102</v>
       </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="6"/>
+      <c r="Q10" s="10">
+        <f t="shared" si="19"/>
         <v>6880</v>
       </c>
-      <c r="R10" s="5">
-        <f t="shared" si="6"/>
+      <c r="R10" s="10">
+        <f t="shared" si="19"/>
         <v>9491</v>
       </c>
-      <c r="S10" s="5">
-        <f t="shared" si="6"/>
+      <c r="S10" s="10">
+        <f t="shared" si="19"/>
         <v>8213</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="10">
         <f>SUM(T3:T9)</f>
         <v>10351</v>
       </c>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1">
-      <c r="B11" s="6" t="s">
+      <c r="U10" s="10">
+        <f>U11*0.958</f>
+        <v>13575.051600000001</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" ref="V10:X10" si="20">V11*0.958</f>
+        <v>17919.068112000001</v>
+      </c>
+      <c r="W10" s="10">
+        <f t="shared" si="20"/>
+        <v>23653.169907840002</v>
+      </c>
+      <c r="X10" s="10">
+        <f t="shared" si="20"/>
+        <v>31222.184278348803</v>
+      </c>
+      <c r="AC10" s="10">
+        <f t="shared" ref="AC10:AV10" si="21">SUM(AC3:AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="10">
+        <f t="shared" si="21"/>
+        <v>12480</v>
+      </c>
+      <c r="AR10" s="10">
+        <f t="shared" si="21"/>
+        <v>10090</v>
+      </c>
+      <c r="AS10" s="10">
+        <f t="shared" si="21"/>
+        <v>12508</v>
+      </c>
+      <c r="AT10" s="10">
+        <f t="shared" si="21"/>
+        <v>15560</v>
+      </c>
+      <c r="AU10" s="10">
+        <f t="shared" si="21"/>
+        <v>19192</v>
+      </c>
+      <c r="AV10" s="10">
+        <f t="shared" si="21"/>
+        <v>17130</v>
+      </c>
+      <c r="AW10" s="10">
+        <f>SUM(AW3:AW9)</f>
+        <v>27657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:110" s="15" customFormat="1">
+      <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="15">
         <v>3825</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="15">
         <v>4131</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="15">
         <v>6176</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="15">
         <v>4802</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="15">
         <v>4089</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="15">
         <v>4476</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="15">
         <v>5871</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="15">
         <v>7314</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="15">
         <v>6451</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="15">
         <v>2976</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="15">
         <v>3283</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="15">
         <v>3551</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="15">
         <v>5479</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="15">
         <v>6010</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="15">
         <v>6815</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="15">
         <v>8010</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="15">
         <v>8533</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="15">
         <v>10735</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="Y11" s="5"/>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" s="5" customFormat="1"/>
-    <row r="13" spans="1:27">
-      <c r="B13" s="5" t="s">
+      <c r="U11" s="15">
+        <f>T11*1.32</f>
+        <v>14170.2</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" ref="V11:X11" si="22">U11*1.32</f>
+        <v>18704.664000000001</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="22"/>
+        <v>24690.156480000001</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="22"/>
+        <v>32591.006553600004</v>
+      </c>
+      <c r="Y11" s="10"/>
+      <c r="AA11" s="9"/>
+      <c r="AQ11" s="15">
+        <v>12699</v>
+      </c>
+      <c r="AR11" s="15">
+        <v>10398</v>
+      </c>
+      <c r="AS11" s="15">
+        <v>13274</v>
+      </c>
+      <c r="AT11" s="9">
+        <f>SUM(C11:F11)</f>
+        <v>18934</v>
+      </c>
+      <c r="AU11" s="9">
+        <f>SUM(G11:J11)</f>
+        <v>21750</v>
+      </c>
+      <c r="AV11" s="9">
+        <f>SUM(K11:N11)</f>
+        <v>16261</v>
+      </c>
+      <c r="AW11" s="9">
+        <f>SUM(O11:R11)</f>
+        <v>26314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:110" s="6" customFormat="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="W12" s="3"/>
+      <c r="Y12" s="5"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:110" s="13" customFormat="1">
+      <c r="B13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="14">
+        <f>C3/C10</f>
+        <v>0.59285327558202494</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" ref="D13:T13" si="23">D3/D10</f>
+        <v>0.58261550509005477</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.59642941038289876</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.60455267337215457</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.61077147016011646</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.66577325113910479</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.63333970560122343</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.6556291390728477</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.66395878739845449</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.49002418379685608</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.57715281234444993</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.545932310279588</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.58121141975308643</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.60816125860373649</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.55552325581395345</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.88452217890633233</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.58431754535492508</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="23"/>
+        <v>0.58351850062795863</v>
+      </c>
+      <c r="U13" s="14">
+        <f t="shared" ref="U13:X13" si="24">U3/U10</f>
+        <v>0.61</v>
+      </c>
+      <c r="V13" s="14">
+        <f t="shared" si="24"/>
+        <v>0.61</v>
+      </c>
+      <c r="W13" s="14">
+        <f t="shared" si="24"/>
+        <v>0.61</v>
+      </c>
+      <c r="X13" s="14">
+        <f t="shared" si="24"/>
+        <v>0.61</v>
+      </c>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14">
+        <f t="shared" ref="AT13:AW13" si="25">AT3/AT11</f>
+        <v>0.48827506073729798</v>
+      </c>
+      <c r="AU13" s="14">
+        <f t="shared" si="25"/>
+        <v>0.56781609195402294</v>
+      </c>
+      <c r="AV13" s="14">
+        <f t="shared" si="25"/>
+        <v>0.60808068384478198</v>
+      </c>
+      <c r="AW13" s="14">
+        <f>AW3/AW11</f>
+        <v>0.71980694687238733</v>
+      </c>
+      <c r="BE13" s="14"/>
+    </row>
+    <row r="14" spans="1:110" s="13" customFormat="1">
+      <c r="B14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="14">
+        <f>C4/C10</f>
+        <v>3.7899296155928533E-2</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" ref="D14:T14" si="26">D4/D10</f>
+        <v>4.5679979117723833E-2</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="26"/>
+        <v>5.0739957716701901E-2</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="26"/>
+        <v>4.2350449973530969E-2</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="26"/>
+        <v>4.1630276564774381E-2</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="26"/>
+        <v>4.0739748056821228E-2</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="26"/>
+        <v>4.5880328809023131E-2</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="26"/>
+        <v>5.9749816041206771E-2</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="26"/>
+        <v>5.310085199128195E-2</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="26"/>
+        <v>5.0483675937122129E-2</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="26"/>
+        <v>7.5908412145345938E-2</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="26"/>
+        <v>6.621820475089342E-2</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="26"/>
+        <v>8.4104938271604937E-2</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="26"/>
+        <v>9.0134382169780397E-2</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="26"/>
+        <v>0.1063953488372093</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="26"/>
+        <v>0.37172057738910547</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="26"/>
+        <v>9.2536223061000858E-2</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="26"/>
+        <v>8.6561684861366048E-2</v>
+      </c>
+      <c r="U14" s="14">
+        <f t="shared" ref="U14:X14" si="27">U4/U10</f>
+        <v>0.08</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="27"/>
+        <v>0.08</v>
+      </c>
+      <c r="W14" s="14">
+        <f t="shared" si="27"/>
+        <v>0.08</v>
+      </c>
+      <c r="X14" s="14">
+        <f t="shared" si="27"/>
+        <v>0.08</v>
+      </c>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14">
+        <f t="shared" ref="AT14:AW14" si="28">AT4/AT10</f>
+        <v>4.440874035989717E-2</v>
+      </c>
+      <c r="AU14" s="14">
+        <f t="shared" si="28"/>
+        <v>4.9030846185910797E-2</v>
+      </c>
+      <c r="AV14" s="14">
+        <f t="shared" si="28"/>
+        <v>6.1587857559836541E-2</v>
+      </c>
+      <c r="AW14" s="14">
+        <f>AW4/AW10</f>
+        <v>0.18968073182196188</v>
+      </c>
+      <c r="BE14" s="14"/>
+    </row>
+    <row r="15" spans="1:110" s="13" customFormat="1">
+      <c r="B15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="14">
+        <f>C5/C10</f>
+        <v>3.275582024905252E-2</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:T15" si="29">D5/D10</f>
+        <v>3.0801357347950926E-2</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="29"/>
+        <v>3.1007751937984496E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="29"/>
+        <v>3.2821598729486499E-2</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="29"/>
+        <v>3.7845705967976713E-2</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="29"/>
+        <v>2.3854194585901902E-2</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="29"/>
+        <v>3.9762951634486711E-2</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="29"/>
+        <v>4.9448123620309051E-2</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="29"/>
+        <v>5.310085199128195E-2</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="29"/>
+        <v>6.7714631197097946E-2</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="29"/>
+        <v>5.8486809357889497E-2</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="29"/>
+        <v>5.4446079461845702E-2</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="29"/>
+        <v>6.1149691358024692E-2</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="29"/>
+        <v>6.3421828908554578E-2</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="29"/>
+        <v>6.9040697674418602E-2</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="29"/>
+        <v>0.16689495311347594</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="29"/>
+        <v>6.2461950566175574E-2</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="29"/>
+        <v>7.2843203555212052E-2</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" ref="U15:X15" si="30">U5/U10</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" si="30"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" si="30"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" si="30"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14">
+        <f t="shared" ref="AT15:AW15" si="31">AT5/AT10</f>
+        <v>3.1812339331619539E-2</v>
+      </c>
+      <c r="AU15" s="14">
+        <f t="shared" si="31"/>
+        <v>3.9756148395164649E-2</v>
+      </c>
+      <c r="AV15" s="14">
+        <f t="shared" si="31"/>
+        <v>5.7559836544074726E-2</v>
+      </c>
+      <c r="AW15" s="14">
+        <f>AW5/AW10</f>
+        <v>9.9902375528799214E-2</v>
+      </c>
+      <c r="BE15" s="14"/>
+    </row>
+    <row r="16" spans="1:110" s="13" customFormat="1">
+      <c r="B16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="14">
+        <f>C7/C10</f>
+        <v>0.3037357877639415</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" ref="D16:T16" si="32">D7/D10</f>
+        <v>0.3054032889584965</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.27813013859525487</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.31021704605611433</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.30713245997088789</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.26614848566068078</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.20282928694322308</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.14289919058130979</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.19041014464038042</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.25362756952841597</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.23369835739173719</v>
+      </c>
+      <c r="N16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.20748370821946605</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.20968364197530864</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.19452638479187151</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.20276162790697674</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="32"/>
+        <v>-0.22389632283215677</v>
+      </c>
+      <c r="S16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.20491903080482163</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" si="32"/>
+        <v>0.18433001642353397</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" ref="U16:X16" si="33">U7/U10</f>
+        <v>0.2</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14">
+        <f t="shared" ref="AT16:AW16" si="34">AT7/AT10</f>
+        <v>0.29871465295629818</v>
+      </c>
+      <c r="AU16" s="14">
+        <f t="shared" si="34"/>
+        <v>0.212588578574406</v>
+      </c>
+      <c r="AV16" s="14">
+        <f t="shared" si="34"/>
+        <v>0.21751313485113835</v>
+      </c>
+      <c r="AW16" s="14">
+        <f>AW7/AW10</f>
+        <v>5.5826734642224395E-2</v>
+      </c>
+      <c r="BE16" s="14"/>
+    </row>
+    <row r="17" spans="1:110" s="5" customFormat="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="U17" s="12"/>
+    </row>
+    <row r="18" spans="1:110" s="9" customFormat="1">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9">
-        <f t="shared" ref="C13:F13" si="7">0.13*C17</f>
+      <c r="C18" s="9">
+        <f t="shared" ref="C18:E18" si="35">0.13*C22</f>
         <v>369.33000000000004</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="7"/>
+      <c r="D18" s="9">
+        <f t="shared" si="35"/>
         <v>397.67</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="7"/>
+      <c r="E18" s="9">
+        <f t="shared" si="35"/>
         <v>478.92</v>
       </c>
-      <c r="F13" s="9">
-        <f>0.13*F17</f>
+      <c r="F18" s="9">
+        <f>0.13*F22</f>
         <v>529.49</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G18" s="9">
         <v>645</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H18" s="9">
         <v>717</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I18" s="9">
         <v>962</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J18" s="9">
         <v>958</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K18" s="9">
         <v>1046</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L18" s="9">
         <v>631</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M18" s="9">
         <v>626</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N18" s="9">
         <v>762</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O18" s="9">
         <v>776</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P18" s="9">
         <v>712</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q18" s="9">
         <v>829</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R18" s="9">
         <v>843</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S18" s="9">
         <v>864</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T18" s="9">
         <v>1005</v>
       </c>
-      <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="B14" s="5" t="s">
+      <c r="Y18" s="10"/>
+      <c r="AQ18" s="9">
+        <v>5804</v>
+      </c>
+      <c r="AR18" s="9">
+        <v>5189</v>
+      </c>
+      <c r="AS18" s="9">
+        <v>5594</v>
+      </c>
+      <c r="AT18" s="9">
+        <f t="shared" ref="AT18:AT22" si="36">SUM(C18:F18)</f>
+        <v>1775.41</v>
+      </c>
+      <c r="AU18" s="9">
+        <f t="shared" ref="AU18:AU22" si="37">SUM(G18:J18)</f>
+        <v>3282</v>
+      </c>
+      <c r="AV18" s="9">
+        <f t="shared" ref="AV18:AV22" si="38">SUM(K18:N18)</f>
+        <v>3065</v>
+      </c>
+      <c r="AW18" s="9">
+        <f t="shared" ref="AW18:AW22" si="39">SUM(O18:R18)</f>
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:110" s="9" customFormat="1">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10">
-        <f t="shared" ref="C14:F14" si="8">C17*0.044</f>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:E19" si="40">C22*0.044</f>
         <v>125.00399999999999</v>
       </c>
-      <c r="D14" s="10">
-        <f t="shared" si="8"/>
+      <c r="D19" s="10">
+        <f t="shared" si="40"/>
         <v>134.596</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="8"/>
+      <c r="E19" s="10">
+        <f t="shared" si="40"/>
         <v>162.096</v>
       </c>
-      <c r="F14" s="10">
-        <f>F17*0.044</f>
+      <c r="F19" s="10">
+        <f>F22*0.044</f>
         <v>179.21199999999999</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G19" s="9">
         <v>31</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H19" s="9">
         <v>33</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I19" s="9">
         <v>217</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J19" s="9">
         <v>354</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K19" s="9">
         <v>558</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L19" s="9">
         <v>367</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M19" s="9">
         <v>343</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N19" s="9">
         <v>332</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O19" s="9">
         <v>329</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P19" s="9">
         <v>364</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q19" s="9">
         <v>360</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R19" s="9">
         <v>366</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S19" s="9">
         <v>347</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T19" s="9">
         <v>364</v>
       </c>
-      <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="B15" s="5" t="s">
+      <c r="Y19" s="10"/>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="9">
+        <f t="shared" si="36"/>
+        <v>600.90800000000002</v>
+      </c>
+      <c r="AU19" s="9">
+        <f t="shared" si="37"/>
+        <v>635</v>
+      </c>
+      <c r="AV19" s="9">
+        <f t="shared" si="38"/>
+        <v>1600</v>
+      </c>
+      <c r="AW19" s="9">
+        <f t="shared" si="39"/>
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:110" s="9" customFormat="1">
+      <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9">
-        <f t="shared" ref="C15:F15" si="9">0.11*C17</f>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20:E20" si="41">0.11*C22</f>
         <v>312.51</v>
       </c>
-      <c r="D15" s="9">
-        <f t="shared" si="9"/>
+      <c r="D20" s="9">
+        <f t="shared" si="41"/>
         <v>336.49</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" si="9"/>
+      <c r="E20" s="9">
+        <f t="shared" si="41"/>
         <v>405.24</v>
       </c>
-      <c r="F15" s="9">
-        <f>0.11*F17</f>
+      <c r="F20" s="9">
+        <f>0.11*F22</f>
         <v>448.03000000000003</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G20" s="9">
         <v>669</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H20" s="9">
         <v>636</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I20" s="9">
         <v>741</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J20" s="9">
         <v>745</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K20" s="9">
         <v>612</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L20" s="9">
         <v>577</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M20" s="9">
         <v>618</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N20" s="9">
         <v>601</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O20" s="9">
         <v>594</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P20" s="9">
         <v>676</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q20" s="9">
         <v>731</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R20" s="9">
         <v>771</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S20" s="9">
         <v>818</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T20" s="9">
         <v>835</v>
       </c>
-      <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="B16" s="5" t="s">
+      <c r="Y20" s="10"/>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="9">
+        <f t="shared" si="36"/>
+        <v>1502.27</v>
+      </c>
+      <c r="AU20" s="9">
+        <f t="shared" si="37"/>
+        <v>2791</v>
+      </c>
+      <c r="AV20" s="9">
+        <f t="shared" si="38"/>
+        <v>2408</v>
+      </c>
+      <c r="AW20" s="9">
+        <f t="shared" si="39"/>
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:110" s="9" customFormat="1">
+      <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10">
-        <f t="shared" ref="C16:E16" si="10">0.04*C17</f>
+      <c r="C21" s="10">
+        <f t="shared" ref="C21:E21" si="42">0.04*C22</f>
         <v>113.64</v>
       </c>
-      <c r="D16" s="10">
-        <f t="shared" si="10"/>
+      <c r="D21" s="10">
+        <f t="shared" si="42"/>
         <v>122.36</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="10"/>
+      <c r="E21" s="10">
+        <f t="shared" si="42"/>
         <v>147.36000000000001</v>
       </c>
-      <c r="F16" s="10">
-        <f>0.04*F17</f>
+      <c r="F21" s="10">
+        <f>0.04*F22</f>
         <v>162.92000000000002</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G21" s="9">
         <v>140</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H21" s="9">
         <v>163</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I21" s="9">
         <v>242</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J21" s="9">
         <v>348</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K21" s="9">
         <v>260</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L21" s="9">
         <v>225</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M21" s="9">
         <v>166</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N21" s="9">
         <v>213</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O21" s="9">
         <v>558</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P21" s="9">
         <v>177</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q21" s="9">
         <v>240</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R21" s="9">
         <v>-112</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S21" s="9">
         <v>196</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T21" s="9">
         <v>244</v>
       </c>
-      <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="2:37">
-      <c r="B17" s="5" t="s">
+      <c r="Y21" s="10"/>
+      <c r="AQ21" s="9">
+        <v>1270</v>
+      </c>
+      <c r="AR21" s="9">
+        <v>1330</v>
+      </c>
+      <c r="AS21" s="9">
+        <v>1424</v>
+      </c>
+      <c r="AT21" s="9">
+        <f t="shared" si="36"/>
+        <v>546.28</v>
+      </c>
+      <c r="AU21" s="9">
+        <f t="shared" si="37"/>
+        <v>893</v>
+      </c>
+      <c r="AV21" s="9">
+        <f t="shared" si="38"/>
+        <v>864</v>
+      </c>
+      <c r="AW21" s="9">
+        <f t="shared" si="39"/>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:110" s="9" customFormat="1">
+      <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C22" s="9">
         <v>2841</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D22" s="9">
         <v>3059</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E22" s="9">
         <v>3684</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F22" s="9">
         <v>4073</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G22" s="9">
         <v>3306</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H22" s="9">
         <v>3632</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I22" s="9">
         <v>6563</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J22" s="9">
         <v>8501</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K22" s="9">
         <v>7828</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L22" s="9">
         <v>11277</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M22" s="9">
         <v>7552</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N22" s="9">
         <v>5256</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O22" s="9">
         <v>5684</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P22" s="9">
         <v>5823</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q22" s="9">
         <v>5735</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R22" s="9">
         <v>6120</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S22" s="9">
         <f>5774-324</f>
         <v>5450</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T22" s="9">
         <v>6077</v>
       </c>
-      <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="2:37">
-      <c r="B18" s="5" t="s">
+      <c r="Y22" s="10"/>
+      <c r="AQ22" s="9">
+        <v>22383</v>
+      </c>
+      <c r="AR22" s="9">
+        <v>12243</v>
+      </c>
+      <c r="AS22" s="9">
+        <v>12303</v>
+      </c>
+      <c r="AT22" s="9">
+        <f t="shared" si="36"/>
+        <v>13657</v>
+      </c>
+      <c r="AU22" s="9">
+        <f t="shared" si="37"/>
+        <v>22002</v>
+      </c>
+      <c r="AV22" s="9">
+        <f t="shared" si="38"/>
+        <v>31913</v>
+      </c>
+      <c r="AW22" s="9">
+        <f t="shared" si="39"/>
+        <v>23362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:110" s="9" customFormat="1">
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18" si="11">C11-C17</f>
+      <c r="C23" s="9">
+        <f t="shared" ref="C23" si="43">C11-C22</f>
         <v>984</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:F18" si="12">D11-D17</f>
+      <c r="D23" s="9">
+        <f t="shared" ref="D23:F23" si="44">D11-D22</f>
         <v>1072</v>
       </c>
-      <c r="E18" s="3">
-        <f>E11-E17</f>
+      <c r="E23" s="9">
+        <f>E11-E22</f>
         <v>2492</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="12"/>
+      <c r="F23" s="9">
+        <f t="shared" si="44"/>
         <v>729</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" ref="G18" si="13">G11-G17</f>
+      <c r="G23" s="9">
+        <f t="shared" ref="G23" si="45">G11-G22</f>
         <v>783</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" ref="H18" si="14">H11-H17</f>
+      <c r="H23" s="9">
+        <f t="shared" ref="H23" si="46">H11-H22</f>
         <v>844</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" ref="I18" si="15">I11-I17</f>
+      <c r="I23" s="9">
+        <f t="shared" ref="I23" si="47">I11-I22</f>
         <v>-692</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" ref="J18" si="16">J11-J17</f>
+      <c r="J23" s="9">
+        <f t="shared" ref="J23" si="48">J11-J22</f>
         <v>-1187</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" ref="K18:S18" si="17">K11-K17</f>
+      <c r="K23" s="9">
+        <f t="shared" ref="K23:S23" si="49">K11-K22</f>
         <v>-1377</v>
       </c>
-      <c r="L18" s="3">
-        <f t="shared" si="17"/>
+      <c r="L23" s="9">
+        <f t="shared" si="49"/>
         <v>-8301</v>
       </c>
-      <c r="M18" s="3">
-        <f t="shared" si="17"/>
+      <c r="M23" s="9">
+        <f t="shared" si="49"/>
         <v>-4269</v>
       </c>
-      <c r="N18" s="3">
-        <f t="shared" si="17"/>
+      <c r="N23" s="9">
+        <f t="shared" si="49"/>
         <v>-1705</v>
       </c>
-      <c r="O18" s="3">
-        <f t="shared" si="17"/>
+      <c r="O23" s="9">
+        <f t="shared" si="49"/>
         <v>-205</v>
       </c>
-      <c r="P18" s="3">
-        <f t="shared" si="17"/>
+      <c r="P23" s="9">
+        <f t="shared" si="49"/>
         <v>187</v>
       </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="17"/>
+      <c r="Q23" s="9">
+        <f t="shared" si="49"/>
         <v>1080</v>
       </c>
-      <c r="R18" s="3">
-        <f t="shared" si="17"/>
+      <c r="R23" s="9">
+        <f t="shared" si="49"/>
         <v>1890</v>
       </c>
-      <c r="S18" s="3">
-        <f t="shared" si="17"/>
+      <c r="S23" s="9">
+        <f t="shared" si="49"/>
         <v>3083</v>
       </c>
-      <c r="T18" s="3">
-        <f>T11-T17</f>
+      <c r="T23" s="9">
+        <f>T11-T22</f>
         <v>4658</v>
       </c>
-    </row>
-    <row r="19" spans="2:37">
-      <c r="B19" s="5" t="s">
+      <c r="U23" s="16">
+        <f>U11*0.3</f>
+        <v>4251.0600000000004</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" ref="V23:X23" si="50">V11*0.3</f>
+        <v>5611.3991999999998</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="50"/>
+        <v>7407.0469439999997</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="50"/>
+        <v>9777.3019660800001</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" ref="AC23:AV23" si="51">AC11-AC22</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="9">
+        <f t="shared" si="51"/>
+        <v>-9684</v>
+      </c>
+      <c r="AR23" s="9">
+        <f t="shared" si="51"/>
+        <v>-1845</v>
+      </c>
+      <c r="AS23" s="9">
+        <f t="shared" si="51"/>
+        <v>971</v>
+      </c>
+      <c r="AT23" s="9">
+        <f t="shared" si="51"/>
+        <v>5277</v>
+      </c>
+      <c r="AU23" s="9">
+        <f t="shared" si="51"/>
+        <v>-252</v>
+      </c>
+      <c r="AV23" s="9">
+        <f t="shared" si="51"/>
+        <v>-15652</v>
+      </c>
+      <c r="AW23" s="9">
+        <f>AW11-AW22</f>
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:110" s="9" customFormat="1">
+      <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19" si="18">C18-C20</f>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24" si="52">C23-C25</f>
         <v>276</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" ref="D19:F19" si="19">D18-D20</f>
+      <c r="D24" s="9">
+        <f t="shared" ref="D24:F24" si="53">D23-D25</f>
         <v>224</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" ref="E19" si="20">E18-E20</f>
+      <c r="E24" s="9">
+        <f t="shared" ref="E24" si="54">E23-E25</f>
         <v>623</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="19"/>
+      <c r="F24" s="9">
+        <f t="shared" si="53"/>
         <v>23</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" ref="G19" si="21">G18-G20</f>
+      <c r="G24" s="9">
+        <f t="shared" ref="G24" si="55">G23-G25</f>
         <v>152</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" ref="H19" si="22">H18-H20</f>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24" si="56">H23-H25</f>
         <v>209</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" ref="I19" si="23">I18-I20</f>
+      <c r="I24" s="9">
+        <f t="shared" ref="I24" si="57">I23-I25</f>
         <v>60</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" ref="J19" si="24">J18-J20</f>
+      <c r="J24" s="9">
+        <f t="shared" ref="J24" si="58">J23-J25</f>
         <v>-151</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" ref="K19:S19" si="25">K18-K20</f>
+      <c r="K24" s="9">
+        <f t="shared" ref="K24:S24" si="59">K23-K25</f>
         <v>636</v>
       </c>
-      <c r="L19" s="3">
-        <f t="shared" si="25"/>
+      <c r="L24" s="9">
+        <f t="shared" si="59"/>
         <v>52</v>
       </c>
-      <c r="M19" s="3">
-        <f t="shared" si="25"/>
+      <c r="M24" s="9">
+        <f t="shared" si="59"/>
         <v>-694</v>
       </c>
-      <c r="N19" s="3">
-        <f t="shared" si="25"/>
+      <c r="N24" s="9">
+        <f t="shared" si="59"/>
         <v>-815</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="25"/>
+      <c r="O24" s="9">
+        <f t="shared" si="59"/>
         <v>-59</v>
       </c>
-      <c r="P19" s="3">
-        <f t="shared" si="25"/>
+      <c r="P24" s="9">
+        <f t="shared" si="59"/>
         <v>44</v>
       </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="25"/>
+      <c r="Q24" s="9">
+        <f t="shared" si="59"/>
         <v>252</v>
       </c>
-      <c r="R19" s="3">
-        <f t="shared" si="25"/>
+      <c r="R24" s="9">
+        <f t="shared" si="59"/>
         <v>393</v>
       </c>
-      <c r="S19" s="3">
-        <f t="shared" si="25"/>
+      <c r="S24" s="9">
+        <f t="shared" si="59"/>
         <v>-1593</v>
       </c>
-      <c r="T19" s="3">
-        <f>T18-T20</f>
+      <c r="T24" s="9">
+        <f>T23-T25</f>
         <v>903</v>
       </c>
-    </row>
-    <row r="20" spans="2:37">
-      <c r="B20" s="5" t="s">
+      <c r="U24" s="9">
+        <f>U23*0.19</f>
+        <v>807.70140000000004</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" ref="V24:X24" si="60">V23*0.19</f>
+        <v>1066.1658479999999</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="60"/>
+        <v>1407.3389193599999</v>
+      </c>
+      <c r="X24" s="9">
+        <f t="shared" si="60"/>
+        <v>1857.6873735552001</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" ref="AC24:AV24" si="61">AC23-AC25</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="9">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="9">
+        <f t="shared" si="61"/>
+        <v>-1855</v>
+      </c>
+      <c r="AR24" s="9">
+        <f t="shared" si="61"/>
+        <v>-1271</v>
+      </c>
+      <c r="AS24" s="9">
+        <f t="shared" si="61"/>
+        <v>-340</v>
+      </c>
+      <c r="AT24" s="9">
+        <f t="shared" si="61"/>
+        <v>1146</v>
+      </c>
+      <c r="AU24" s="9">
+        <f t="shared" si="61"/>
+        <v>270</v>
+      </c>
+      <c r="AV24" s="9">
+        <f t="shared" si="61"/>
+        <v>-821</v>
+      </c>
+      <c r="AW24" s="9">
+        <f>AW23-AW25</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:110" s="9" customFormat="1">
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C25" s="9">
         <v>708</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D25" s="9">
         <v>848</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E25" s="9">
         <v>1869</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F25" s="9">
         <v>706</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G25" s="9">
         <v>631</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H25" s="9">
         <v>635</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I25" s="9">
         <v>-752</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J25" s="9">
         <v>-1036</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K25" s="9">
         <v>-2013</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L25" s="9">
         <v>-8353</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M25" s="9">
         <v>-3575</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N25" s="9">
         <v>-890</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O25" s="9">
         <v>-146</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P25" s="9">
         <v>143</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q25" s="9">
         <v>828</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R25" s="9">
         <v>1497</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S25" s="9">
         <v>4676</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T25" s="9">
         <v>3755</v>
       </c>
-      <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="2:37">
-      <c r="B21" s="5" t="s">
+      <c r="U25" s="9">
+        <f>U23-U24</f>
+        <v>3443.3586000000005</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" ref="V25:X25" si="62">V23-V24</f>
+        <v>4545.2333520000002</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="62"/>
+        <v>5999.7080246400001</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="62"/>
+        <v>7919.6145925248002</v>
+      </c>
+      <c r="Y25" s="10"/>
+      <c r="AQ25" s="9">
+        <v>-7829</v>
+      </c>
+      <c r="AR25" s="9">
+        <v>-574</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>1311</v>
+      </c>
+      <c r="AT25" s="9">
+        <f t="shared" ref="AT25:AT27" si="63">SUM(C25:F25)</f>
+        <v>4131</v>
+      </c>
+      <c r="AU25" s="9">
+        <f t="shared" ref="AU25:AU27" si="64">SUM(G25:J25)</f>
+        <v>-522</v>
+      </c>
+      <c r="AV25" s="9">
+        <f t="shared" ref="AV25:AV27" si="65">SUM(K25:N25)</f>
+        <v>-14831</v>
+      </c>
+      <c r="AW25" s="9">
+        <f t="shared" ref="AW25:AW27" si="66">SUM(O25:R25)</f>
+        <v>2322</v>
+      </c>
+      <c r="AX25" s="9">
+        <f>AW25*(1+$BA$29)</f>
+        <v>2507.7600000000002</v>
+      </c>
+      <c r="AY25" s="9">
+        <f t="shared" ref="AY25:DF25" si="67">AX25*(1+$BA$29)</f>
+        <v>2708.3808000000004</v>
+      </c>
+      <c r="AZ25" s="9">
+        <f t="shared" si="67"/>
+        <v>2925.0512640000006</v>
+      </c>
+      <c r="BA25" s="9">
+        <f t="shared" si="67"/>
+        <v>3159.0553651200007</v>
+      </c>
+      <c r="BB25" s="9">
+        <f t="shared" si="67"/>
+        <v>3411.7797943296009</v>
+      </c>
+      <c r="BC25" s="9">
+        <f t="shared" si="67"/>
+        <v>3684.722177875969</v>
+      </c>
+      <c r="BD25" s="9">
+        <f t="shared" si="67"/>
+        <v>3979.4999521060467</v>
+      </c>
+      <c r="BE25" s="9">
+        <f t="shared" si="67"/>
+        <v>4297.8599482745303</v>
+      </c>
+      <c r="BF25" s="9">
+        <f t="shared" si="67"/>
+        <v>4641.6887441364934</v>
+      </c>
+      <c r="BG25" s="9">
+        <f t="shared" si="67"/>
+        <v>5013.0238436674135</v>
+      </c>
+      <c r="BH25" s="9">
+        <f t="shared" si="67"/>
+        <v>5414.0657511608069</v>
+      </c>
+      <c r="BI25" s="9">
+        <f t="shared" si="67"/>
+        <v>5847.1910112536716</v>
+      </c>
+      <c r="BJ25" s="9">
+        <f t="shared" si="67"/>
+        <v>6314.9662921539657</v>
+      </c>
+      <c r="BK25" s="9">
+        <f t="shared" si="67"/>
+        <v>6820.1635955262836</v>
+      </c>
+      <c r="BL25" s="9">
+        <f t="shared" si="67"/>
+        <v>7365.7766831683866</v>
+      </c>
+      <c r="BM25" s="9">
+        <f t="shared" si="67"/>
+        <v>7955.0388178218582</v>
+      </c>
+      <c r="BN25" s="9">
+        <f t="shared" si="67"/>
+        <v>8591.4419232476066</v>
+      </c>
+      <c r="BO25" s="9">
+        <f t="shared" si="67"/>
+        <v>9278.7572771074156</v>
+      </c>
+      <c r="BP25" s="9">
+        <f t="shared" si="67"/>
+        <v>10021.05785927601</v>
+      </c>
+      <c r="BQ25" s="9">
+        <f t="shared" si="67"/>
+        <v>10822.742488018092</v>
+      </c>
+      <c r="BR25" s="9">
+        <f t="shared" si="67"/>
+        <v>11688.561887059539</v>
+      </c>
+      <c r="BS25" s="9">
+        <f t="shared" si="67"/>
+        <v>12623.646838024302</v>
+      </c>
+      <c r="BT25" s="9">
+        <f t="shared" si="67"/>
+        <v>13633.538585066248</v>
+      </c>
+      <c r="BU25" s="9">
+        <f t="shared" si="67"/>
+        <v>14724.221671871548</v>
+      </c>
+      <c r="BV25" s="9">
+        <f t="shared" si="67"/>
+        <v>15902.159405621273</v>
+      </c>
+      <c r="BW25" s="9">
+        <f t="shared" si="67"/>
+        <v>17174.332158070974</v>
+      </c>
+      <c r="BX25" s="9">
+        <f t="shared" si="67"/>
+        <v>18548.278730716655</v>
+      </c>
+      <c r="BY25" s="9">
+        <f t="shared" si="67"/>
+        <v>20032.141029173988</v>
+      </c>
+      <c r="BZ25" s="9">
+        <f t="shared" si="67"/>
+        <v>21634.712311507908</v>
+      </c>
+      <c r="CA25" s="9">
+        <f t="shared" si="67"/>
+        <v>23365.489296428543</v>
+      </c>
+      <c r="CB25" s="9">
+        <f t="shared" si="67"/>
+        <v>25234.728440142826</v>
+      </c>
+      <c r="CC25" s="9">
+        <f t="shared" si="67"/>
+        <v>27253.506715354255</v>
+      </c>
+      <c r="CD25" s="9">
+        <f t="shared" si="67"/>
+        <v>29433.787252582599</v>
+      </c>
+      <c r="CE25" s="9">
+        <f t="shared" si="67"/>
+        <v>31788.490232789209</v>
+      </c>
+      <c r="CF25" s="9">
+        <f t="shared" si="67"/>
+        <v>34331.569451412346</v>
+      </c>
+      <c r="CG25" s="9">
+        <f t="shared" si="67"/>
+        <v>37078.095007525335</v>
+      </c>
+      <c r="CH25" s="9">
+        <f t="shared" si="67"/>
+        <v>40044.342608127365</v>
+      </c>
+      <c r="CI25" s="9">
+        <f t="shared" si="67"/>
+        <v>43247.890016777557</v>
+      </c>
+      <c r="CJ25" s="9">
+        <f t="shared" si="67"/>
+        <v>46707.721218119768</v>
+      </c>
+      <c r="CK25" s="9">
+        <f t="shared" si="67"/>
+        <v>50444.338915569351</v>
+      </c>
+      <c r="CL25" s="9">
+        <f t="shared" si="67"/>
+        <v>54479.886028814901</v>
+      </c>
+      <c r="CM25" s="9">
+        <f t="shared" si="67"/>
+        <v>58838.276911120098</v>
+      </c>
+      <c r="CN25" s="9">
+        <f t="shared" si="67"/>
+        <v>63545.339064009713</v>
+      </c>
+      <c r="CO25" s="9">
+        <f t="shared" si="67"/>
+        <v>68628.9661891305</v>
+      </c>
+      <c r="CP25" s="9">
+        <f t="shared" si="67"/>
+        <v>74119.283484260945</v>
+      </c>
+      <c r="CQ25" s="9">
+        <f t="shared" si="67"/>
+        <v>80048.826163001824</v>
+      </c>
+      <c r="CR25" s="9">
+        <f t="shared" si="67"/>
+        <v>86452.732256041971</v>
+      </c>
+      <c r="CS25" s="9">
+        <f t="shared" si="67"/>
+        <v>93368.950836525328</v>
+      </c>
+      <c r="CT25" s="9">
+        <f t="shared" si="67"/>
+        <v>100838.46690344736</v>
+      </c>
+      <c r="CU25" s="9">
+        <f t="shared" si="67"/>
+        <v>108905.54425572316</v>
+      </c>
+      <c r="CV25" s="9">
+        <f t="shared" si="67"/>
+        <v>117617.98779618101</v>
+      </c>
+      <c r="CW25" s="9">
+        <f t="shared" si="67"/>
+        <v>127027.4268198755</v>
+      </c>
+      <c r="CX25" s="9">
+        <f t="shared" si="67"/>
+        <v>137189.62096546555</v>
+      </c>
+      <c r="CY25" s="9">
+        <f t="shared" si="67"/>
+        <v>148164.79064270281</v>
+      </c>
+      <c r="CZ25" s="9">
+        <f t="shared" si="67"/>
+        <v>160017.97389411903</v>
+      </c>
+      <c r="DA25" s="9">
+        <f t="shared" si="67"/>
+        <v>172819.41180564856</v>
+      </c>
+      <c r="DB25" s="9">
+        <f t="shared" si="67"/>
+        <v>186644.96475010045</v>
+      </c>
+      <c r="DC25" s="9">
+        <f t="shared" si="67"/>
+        <v>201576.5619301085</v>
+      </c>
+      <c r="DD25" s="9">
+        <f t="shared" si="67"/>
+        <v>217702.6868845172</v>
+      </c>
+      <c r="DE25" s="9">
+        <f t="shared" si="67"/>
+        <v>235118.90183527858</v>
+      </c>
+      <c r="DF25" s="9">
+        <f t="shared" si="67"/>
+        <v>253928.41398210087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:110" s="11" customFormat="1">
+      <c r="B26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C26" s="11">
         <v>0.92</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D26" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E26" s="11">
         <v>2.44</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F26" s="11">
         <v>0.94</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G26" s="11">
         <v>0.84</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H26" s="11">
         <v>0.84</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I26" s="11">
         <v>-1.06</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J26" s="11">
         <v>-1.82</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K26" s="11">
         <v>-2.4900000000000002</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L26" s="11">
         <v>-7.58</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M26" s="11">
         <v>-4.16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N26" s="11">
         <v>-1.42</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O26" s="11">
         <v>-0.36</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P26" s="11">
         <v>-0.11</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q26" s="11">
         <v>0.67</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R26" s="11">
         <v>1.86</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S26" s="11">
         <v>4.6500000000000004</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T26" s="11">
         <v>3.76</v>
       </c>
-      <c r="Y21" s="5"/>
-    </row>
-    <row r="22" spans="2:37">
-      <c r="B22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="U26" s="11">
+        <f>U25/U27</f>
+        <v>3.7359183673469394</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" ref="V26:X26" si="68">V25/V27</f>
+        <v>4.9812244897959186</v>
+      </c>
+      <c r="W26" s="11">
+        <f t="shared" si="68"/>
+        <v>6.6416326530612251</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="68"/>
+        <v>8.855510204081634</v>
+      </c>
+      <c r="Y26" s="17"/>
+      <c r="AQ26" s="11">
+        <v>-10.64</v>
+      </c>
+      <c r="AR26" s="11">
+        <v>-1.31</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>1.71</v>
+      </c>
+      <c r="AT26" s="9">
+        <f t="shared" si="63"/>
+        <v>5.4</v>
+      </c>
+      <c r="AU26" s="9">
+        <f t="shared" si="64"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="AV26" s="9">
+        <f t="shared" si="65"/>
+        <v>-15.65</v>
+      </c>
+      <c r="AW26" s="11">
+        <f t="shared" si="66"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:110" s="9" customFormat="1">
+      <c r="B27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
         <v>765</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D27" s="9">
         <v>764</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E27" s="9">
         <v>755</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F27" s="9">
         <v>749</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G27" s="9">
         <v>747</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H27" s="9">
         <v>748</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I27" s="9">
         <v>893</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J27" s="9">
         <v>895</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K27" s="9">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L27" s="9">
         <v>930</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M27" s="9">
         <v>931</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N27" s="9">
         <v>931</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O27" s="9">
         <v>933</v>
       </c>
-      <c r="R22" s="3">
+      <c r="P27" s="9">
+        <v>933</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>933</v>
+      </c>
+      <c r="R27" s="9">
         <v>934</v>
       </c>
-      <c r="T22" s="3">
+      <c r="S27" s="9">
+        <v>937</v>
+      </c>
+      <c r="T27" s="9">
         <v>931</v>
       </c>
-    </row>
-    <row r="23" spans="2:37">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:37">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:37">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="2:37">
-      <c r="B26" s="5"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-    </row>
-    <row r="27" spans="2:37">
-      <c r="B27" s="5" t="s">
+      <c r="U27" s="9">
+        <f>T27*0.99</f>
+        <v>921.68999999999994</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" ref="V27:X27" si="69">U27*0.99</f>
+        <v>912.47309999999993</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" si="69"/>
+        <v>903.34836899999993</v>
+      </c>
+      <c r="X27" s="9">
+        <f t="shared" si="69"/>
+        <v>894.31488530999991</v>
+      </c>
+      <c r="AQ27" s="9">
+        <f t="shared" ref="AQ27:AT27" si="70">AQ25/AQ26</f>
+        <v>735.80827067669168</v>
+      </c>
+      <c r="AR27" s="9">
+        <f t="shared" si="70"/>
+        <v>438.16793893129767</v>
+      </c>
+      <c r="AS27" s="9">
+        <f t="shared" si="70"/>
+        <v>766.66666666666663</v>
+      </c>
+      <c r="AT27" s="9">
+        <f t="shared" si="70"/>
+        <v>765</v>
+      </c>
+      <c r="AU27" s="9">
+        <f>AU25/AU26</f>
+        <v>434.99999999999994</v>
+      </c>
+      <c r="AV27" s="9">
+        <f>N27</f>
+        <v>931</v>
+      </c>
+      <c r="AW27" s="9">
+        <f>R27</f>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:110">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:110">
+      <c r="B29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" ref="G29:T29" si="71">G27/F27-1</f>
+        <v>-2.6702269692924219E-3</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="71"/>
+        <v>1.3386880856760541E-3</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="71"/>
+        <v>0.19385026737967914</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="71"/>
+        <v>2.2396416573349232E-3</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="71"/>
+        <v>5.5865921787709993E-3</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="71"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="71"/>
+        <v>1.0752688172042113E-3</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="71"/>
+        <v>2.1482277121374072E-3</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" si="71"/>
+        <v>1.071811361200492E-3</v>
+      </c>
+      <c r="S29" s="7">
+        <f t="shared" si="71"/>
+        <v>3.2119914346895317E-3</v>
+      </c>
+      <c r="T29" s="7">
+        <f>T27/S27-1</f>
+        <v>-6.4034151547491813E-3</v>
+      </c>
+      <c r="AZ29" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA29" s="19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:110">
+      <c r="B30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" ref="G30:S30" si="72">G3/C3-1</f>
+        <v>-4.20091324200913E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="72"/>
+        <v>0.11290322580645151</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="72"/>
+        <v>0.30484442693974012</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="72"/>
+        <v>0.95052539404553404</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="72"/>
+        <v>0.59723546234509062</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="72"/>
+        <v>-0.34742351046698872</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="72"/>
+        <v>-0.30003018412315119</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="72"/>
+        <v>-0.41705948372615043</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="72"/>
+        <v>-0.10086541330945986</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="72"/>
+        <v>1.2893275755706353</v>
+      </c>
+      <c r="Q30" s="7">
+        <f t="shared" si="72"/>
+        <v>0.64812419146183697</v>
+      </c>
+      <c r="R30" s="7">
+        <f t="shared" si="72"/>
+        <v>2.2325760492876396</v>
+      </c>
+      <c r="S30" s="7">
+        <f t="shared" si="72"/>
+        <v>0.5927646863591105</v>
+      </c>
+      <c r="T30" s="7">
+        <f>T3/P3-1</f>
+        <v>0.62759364052815947</v>
+      </c>
+      <c r="AZ30" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA30" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:110">
+      <c r="B31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="7">
-        <f t="shared" ref="C27" si="26">C18/C11</f>
+      <c r="G31" s="7">
+        <f t="shared" ref="G31:S31" si="73">G10/C10-1</f>
+        <v>-7.0113697888467774E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="73"/>
+        <v>-2.6102845210127956E-2</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="73"/>
+        <v>0.22879962414846133</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="73"/>
+        <v>0.7985706723133934</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="73"/>
+        <v>0.46928675400291131</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="73"/>
+        <v>-0.1133744304476012</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="73"/>
+        <v>-0.23188682852227105</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="73"/>
+        <v>-0.2999264164827079</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="73"/>
+        <v>2.7144838517931369E-2</v>
+      </c>
+      <c r="P31" s="7">
+        <f t="shared" si="73"/>
+        <v>0.84461910519951622</v>
+      </c>
+      <c r="Q31" s="7">
+        <f t="shared" si="73"/>
+        <v>0.71229467396714785</v>
+      </c>
+      <c r="R31" s="7">
+        <f t="shared" si="73"/>
+        <v>0.99516501997056972</v>
+      </c>
+      <c r="S31" s="7">
+        <f t="shared" si="73"/>
+        <v>0.58429783950617287</v>
+      </c>
+      <c r="T31" s="7">
+        <f>T10/P10-1</f>
+        <v>0.69632907243526709</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AZ31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA31" s="22">
+        <f>NPV(BA30,AX25:DF25)</f>
+        <v>84447.676947455664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:110">
+      <c r="B32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" ref="G32:T32" si="74">G11/C11-1</f>
+        <v>6.9019607843137321E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="74"/>
+        <v>8.3514887436455965E-2</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="74"/>
+        <v>-4.9384715025906689E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="74"/>
+        <v>0.52311536859641805</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="74"/>
+        <v>0.57764734653949623</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="74"/>
+        <v>-0.33512064343163539</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="74"/>
+        <v>-0.44081076477601766</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="74"/>
+        <v>-0.51449275362318847</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="74"/>
+        <v>-0.15067431405983567</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" si="74"/>
+        <v>1.019489247311828</v>
+      </c>
+      <c r="Q32" s="7">
+        <f t="shared" si="74"/>
+        <v>1.0758452634785258</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" si="74"/>
+        <v>1.2557026189805689</v>
+      </c>
+      <c r="S32" s="7">
+        <f t="shared" si="74"/>
+        <v>0.55740098558131046</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="74"/>
+        <v>0.78618968386023291</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AZ32" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA32" s="22">
+        <f>BA31/Main!N3</f>
+        <v>90.658607487840101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:53">
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="7">
+        <f>C23/C11</f>
         <v>0.25725490196078432</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" ref="D27:F27" si="27">D18/D11</f>
+      <c r="D33" s="7">
+        <f>D23/D11</f>
         <v>0.25950133139675624</v>
       </c>
-      <c r="E27" s="7">
-        <f t="shared" si="27"/>
+      <c r="E33" s="7">
+        <f>E23/E11</f>
         <v>0.40349740932642486</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="27"/>
+      <c r="F33" s="7">
+        <f>F23/F11</f>
         <v>0.15181174510620574</v>
       </c>
-      <c r="G27" s="7">
-        <f t="shared" ref="G27:J27" si="28">G18/G11</f>
+      <c r="G33" s="7">
+        <f>G23/G11</f>
         <v>0.19148936170212766</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" si="28"/>
+      <c r="H33" s="7">
+        <f>H23/H11</f>
         <v>0.18856121537086684</v>
       </c>
-      <c r="I27" s="7">
-        <f t="shared" si="28"/>
+      <c r="I33" s="7">
+        <f>I23/I11</f>
         <v>-0.11786748424459206</v>
       </c>
-      <c r="J27" s="7">
-        <f t="shared" si="28"/>
+      <c r="J33" s="7">
+        <f>J23/J11</f>
         <v>-0.16229149576155319</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" ref="K27:N27" si="29">K18/K11</f>
+      <c r="K33" s="7">
+        <f>K23/K11</f>
         <v>-0.2134552782514339</v>
       </c>
-      <c r="L27" s="7">
-        <f t="shared" si="29"/>
+      <c r="L33" s="7">
+        <f>L23/L11</f>
         <v>-2.7893145161290325</v>
       </c>
-      <c r="M27" s="7">
-        <f t="shared" si="29"/>
+      <c r="M33" s="7">
+        <f>M23/M11</f>
         <v>-1.300335059396893</v>
       </c>
-      <c r="N27" s="7">
-        <f t="shared" si="29"/>
+      <c r="N33" s="7">
+        <f>N23/N11</f>
         <v>-0.48014643762320475</v>
       </c>
-      <c r="O27" s="7">
-        <f t="shared" ref="O27:Q27" si="30">O18/O11</f>
+      <c r="O33" s="7">
+        <f>O23/O11</f>
         <v>-3.7415586785909838E-2</v>
       </c>
-      <c r="P27" s="7">
-        <f t="shared" si="30"/>
+      <c r="P33" s="7">
+        <f>P23/P11</f>
         <v>3.1114808652246258E-2</v>
       </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="30"/>
+      <c r="Q33" s="7">
+        <f>Q23/Q11</f>
         <v>0.15847395451210564</v>
       </c>
-      <c r="R27" s="7">
-        <f t="shared" ref="R27" si="31">R18/R11</f>
+      <c r="R33" s="7">
+        <f>R23/R11</f>
         <v>0.23595505617977527</v>
       </c>
-      <c r="S27" s="7">
-        <f t="shared" ref="S27" si="32">S18/S11</f>
+      <c r="S33" s="7">
+        <f>S23/S11</f>
         <v>0.3613031759053088</v>
       </c>
-      <c r="T27" s="7">
-        <f>T18/T11</f>
+      <c r="T33" s="7">
+        <f>T23/T11</f>
         <v>0.43390777829529575</v>
       </c>
-    </row>
-    <row r="28" spans="2:37">
-      <c r="B28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="7">
-        <f t="shared" ref="C28" si="33">C19/C18</f>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="24"/>
+    </row>
+    <row r="34" spans="2:53">
+      <c r="B34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="7">
+        <f>C24/C23</f>
         <v>0.28048780487804881</v>
       </c>
-      <c r="D28" s="7">
-        <f t="shared" ref="D28:J28" si="34">D19/D18</f>
+      <c r="D34" s="7">
+        <f>D24/D23</f>
         <v>0.20895522388059701</v>
       </c>
-      <c r="E28" s="7">
-        <f t="shared" si="34"/>
+      <c r="E34" s="7">
+        <f>E24/E23</f>
         <v>0.25</v>
       </c>
-      <c r="F28" s="7">
-        <f t="shared" si="34"/>
+      <c r="F34" s="7">
+        <f>F24/F23</f>
         <v>3.1550068587105622E-2</v>
       </c>
-      <c r="G28" s="7">
-        <f t="shared" si="34"/>
+      <c r="G34" s="7">
+        <f>G24/G23</f>
         <v>0.19412515964240101</v>
       </c>
-      <c r="H28" s="7">
-        <f t="shared" ref="H28" si="35">H19/H18</f>
+      <c r="H34" s="7">
+        <f>H24/H23</f>
         <v>0.24763033175355451</v>
       </c>
-      <c r="I28" s="7">
-        <f t="shared" si="34"/>
+      <c r="I34" s="7">
+        <f>I24/I23</f>
         <v>-8.6705202312138727E-2</v>
       </c>
-      <c r="J28" s="7">
-        <f t="shared" si="34"/>
+      <c r="J34" s="7">
+        <f>J24/J23</f>
         <v>0.12721145745577084</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" ref="K28:S28" si="36">K19/K18</f>
+      <c r="K34" s="7">
+        <f>K24/K23</f>
         <v>-0.46187363834422657</v>
       </c>
-      <c r="L28" s="7">
-        <f t="shared" si="36"/>
+      <c r="L34" s="7">
+        <f>L24/L23</f>
         <v>-6.2643055053607996E-3</v>
       </c>
-      <c r="M28" s="7">
-        <f t="shared" si="36"/>
+      <c r="M34" s="7">
+        <f>M24/M23</f>
         <v>0.16256734598266573</v>
       </c>
-      <c r="N28" s="7">
-        <f t="shared" ref="N28" si="37">N19/N18</f>
+      <c r="N34" s="7">
+        <f>N24/N23</f>
         <v>0.47800586510263932</v>
       </c>
-      <c r="O28" s="7">
-        <f t="shared" si="36"/>
+      <c r="O34" s="7">
+        <f>O24/O23</f>
         <v>0.28780487804878047</v>
       </c>
-      <c r="P28" s="7">
-        <f t="shared" si="36"/>
+      <c r="P34" s="7">
+        <f>P24/P23</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="36"/>
+      <c r="Q34" s="7">
+        <f>Q24/Q23</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="R28" s="7">
-        <f t="shared" ref="R28" si="38">R19/R18</f>
+      <c r="R34" s="7">
+        <f>R24/R23</f>
         <v>0.20793650793650795</v>
       </c>
-      <c r="S28" s="7">
-        <f t="shared" si="36"/>
+      <c r="S34" s="7">
+        <f>S24/S23</f>
         <v>-0.51670450859552386</v>
       </c>
-      <c r="T28" s="7">
-        <f>T19/T18</f>
+      <c r="T34" s="7">
+        <f>T24/T23</f>
         <v>0.19386002576212966</v>
       </c>
-    </row>
-    <row r="30" spans="2:37">
-      <c r="B30" s="5" t="s">
+      <c r="AZ34" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA34" s="26">
+        <f>BA32/Main!N2-1</f>
+        <v>0.42746980771280274</v>
+      </c>
+    </row>
+    <row r="36" spans="2:53">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="9">
-        <f t="shared" ref="C30" si="39">C31-C44</f>
+      <c r="C36" s="9">
+        <f t="shared" ref="C36" si="75">C37-C50</f>
         <v>-8703</v>
       </c>
-      <c r="D30" s="9">
-        <f t="shared" ref="D30" si="40">D31-D44</f>
+      <c r="D36" s="9">
+        <f t="shared" ref="D36" si="76">D37-D50</f>
         <v>-8950</v>
       </c>
-      <c r="E30" s="9">
-        <f t="shared" ref="E30" si="41">E31-E44</f>
+      <c r="E36" s="9">
+        <f t="shared" ref="E36" si="77">E37-E50</f>
         <v>-7244</v>
       </c>
-      <c r="F30" s="9">
-        <f t="shared" ref="F30" si="42">F31-F44</f>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36" si="78">F37-F50</f>
         <v>-7168</v>
       </c>
-      <c r="G30" s="9">
-        <f t="shared" ref="G30" si="43">G31-G44</f>
+      <c r="G36" s="9">
+        <f t="shared" ref="G36" si="79">G37-G50</f>
         <v>-8451</v>
       </c>
-      <c r="H30" s="9">
-        <f t="shared" ref="H30" si="44">H31-H44</f>
+      <c r="H36" s="9">
+        <f t="shared" ref="H36" si="80">H37-H50</f>
         <v>-8404</v>
       </c>
-      <c r="I30" s="9">
-        <f t="shared" ref="I30" si="45">I31-I44</f>
+      <c r="I36" s="9">
+        <f t="shared" ref="I36" si="81">I37-I50</f>
         <v>-42289</v>
       </c>
-      <c r="J30" s="9">
-        <f t="shared" ref="J30" si="46">J31-J44</f>
+      <c r="J36" s="9">
+        <f t="shared" ref="J36" si="82">J37-J50</f>
         <v>-35020</v>
       </c>
-      <c r="K30" s="9">
-        <f t="shared" ref="K30:S30" si="47">K31-K44</f>
+      <c r="K36" s="9">
+        <f t="shared" ref="K36:S36" si="83">K37-K50</f>
         <v>-33795</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9">
-        <f t="shared" si="47"/>
+      <c r="L36" s="9">
+        <f>L37-L50</f>
+        <v>-34899</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="83"/>
+        <v>-33952</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" si="83"/>
         <v>-33567</v>
       </c>
-      <c r="O30" s="9">
-        <f t="shared" si="47"/>
+      <c r="O36" s="9">
+        <f t="shared" si="83"/>
         <v>-33013</v>
       </c>
-      <c r="P30" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="47"/>
+      <c r="P36" s="9">
+        <f t="shared" si="83"/>
+        <v>-30603</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="83"/>
         <v>-28636</v>
       </c>
-      <c r="R30" s="9">
-        <f t="shared" si="47"/>
+      <c r="R36" s="9">
+        <f t="shared" si="83"/>
         <v>-26667</v>
       </c>
-      <c r="S30" s="9">
-        <f t="shared" si="47"/>
+      <c r="S36" s="9">
+        <f t="shared" si="83"/>
         <v>-23956</v>
       </c>
-      <c r="T30" s="9">
-        <f>T31-T44</f>
+      <c r="T36" s="9">
+        <f>T37-T50</f>
         <v>-20381</v>
       </c>
-      <c r="V30" s="9">
-        <f>V31-V44</f>
-        <v>-34899</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37">
-      <c r="B31" s="5" t="s">
+      <c r="U36" s="9">
+        <f t="shared" ref="U36:X36" si="84">U37-U50</f>
+        <v>-16937.6414</v>
+      </c>
+      <c r="V36" s="9">
+        <f t="shared" si="84"/>
+        <v>-12392.408047999999</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="84"/>
+        <v>-6392.7000233599992</v>
+      </c>
+      <c r="X36" s="9">
+        <f t="shared" si="84"/>
+        <v>1526.9145691648009</v>
+      </c>
+    </row>
+    <row r="37" spans="2:53">
+      <c r="B37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C37" s="9">
         <v>1606</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D37" s="9">
         <v>1362</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E37" s="9">
         <v>2954</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F37" s="9">
         <v>3033</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G37" s="9">
         <v>1752</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H37" s="9">
         <v>1751</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I37" s="9">
         <f>4840+454</f>
         <v>5294</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J37" s="9">
         <f>3032+485</f>
         <v>3517</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K37" s="9">
         <f>2021+242</f>
         <v>2263</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9">
+      <c r="L37" s="10">
+        <f>1011+124</f>
+        <v>1135</v>
+      </c>
+      <c r="M37" s="9">
+        <f>1896+51</f>
+        <v>1947</v>
+      </c>
+      <c r="N37" s="9">
         <f>2008+170</f>
         <v>2178</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O37" s="9">
         <f>2270+183</f>
         <v>2453</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9">
+      <c r="P37" s="9">
+        <f>4569+180</f>
+        <v>4749</v>
+      </c>
+      <c r="Q37" s="9">
         <f>2059+220</f>
         <v>2279</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R37" s="9">
         <v>2764</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S37" s="9">
         <v>1909</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T37" s="9">
         <v>1362</v>
       </c>
-      <c r="V31" s="10">
-        <f>1011+124</f>
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:37">
-      <c r="B32" s="5" t="s">
+      <c r="U37" s="9">
+        <f>T37+U25</f>
+        <v>4805.3586000000005</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" ref="V37:X37" si="85">U37+V25</f>
+        <v>9350.5919520000007</v>
+      </c>
+      <c r="W37" s="9">
+        <f t="shared" si="85"/>
+        <v>15350.299976640001</v>
+      </c>
+      <c r="X37" s="9">
+        <f t="shared" si="85"/>
+        <v>23269.914569164801</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53">
+      <c r="B38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C38" s="9">
         <v>5184</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D38" s="9">
         <v>5521</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E38" s="9">
         <v>6000</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F38" s="9">
         <v>4893</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G38" s="9">
         <v>5310</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H38" s="9">
         <v>5273</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I38" s="9">
         <v>5854</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J38" s="9">
         <v>6373</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K38" s="9">
         <v>2458</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9">
+      <c r="L38" s="9">
+        <v>2359</v>
+      </c>
+      <c r="M38" s="9">
+        <v>2083</v>
+      </c>
+      <c r="N38" s="9">
         <v>2115</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O38" s="9">
         <v>3046</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9">
+      <c r="P38" s="9">
+        <v>3288</v>
+      </c>
+      <c r="Q38" s="9">
         <v>3477</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R38" s="9">
         <v>4208</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S38" s="9">
         <v>5434</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T38" s="9">
         <v>6350</v>
       </c>
-      <c r="V32" s="9">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22">
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="39" spans="2:53">
+      <c r="B39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C39" s="9">
         <v>1057</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D39" s="9">
         <v>1347</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E39" s="9">
         <v>1009</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F39" s="9">
         <v>1260</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G39" s="9">
         <v>1484</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H39" s="9">
         <v>1582</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I39" s="9">
         <v>1601</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J39" s="9">
         <v>1581</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K39" s="9">
         <v>1436</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9">
+      <c r="L39" s="9">
+        <v>1477</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1660</v>
+      </c>
+      <c r="N39" s="9">
         <v>1898</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O39" s="9">
         <v>2173</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9">
+      <c r="P39" s="9">
+        <v>1837</v>
+      </c>
+      <c r="Q39" s="9">
         <v>1773</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R39" s="9">
         <v>1846</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S39" s="9">
         <v>1406</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T39" s="9">
         <v>1564</v>
       </c>
-      <c r="V33" s="9">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22">
-      <c r="B34" s="5" t="s">
+    </row>
+    <row r="40" spans="2:53">
+      <c r="B40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C40" s="9">
         <v>335</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D40" s="9">
         <v>1664</v>
       </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
         <v>6445</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J40" s="9">
         <v>3870</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K40" s="9">
         <v>5732</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9">
+      <c r="L40" s="9">
+        <v>1412</v>
+      </c>
+      <c r="M40" s="9">
+        <v>3559</v>
+      </c>
+      <c r="N40" s="9">
         <v>1433</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O40" s="9">
         <v>1249</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9">
+      <c r="P40" s="9">
+        <v>1774</v>
+      </c>
+      <c r="Q40" s="9">
         <v>1098</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R40" s="9">
         <v>72</v>
       </c>
-      <c r="S34" s="9">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0</v>
-      </c>
-      <c r="V34" s="9">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22">
-      <c r="B35" s="5" t="s">
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:53">
+      <c r="B41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C41" s="9">
         <v>8894</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D41" s="9">
         <v>10990</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E41" s="9">
         <v>11112</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F41" s="9">
         <v>9932</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G41" s="9">
         <v>9270</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H41" s="9">
         <v>9425</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I41" s="9">
         <v>20944</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J41" s="9">
         <v>16773</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K41" s="9">
         <v>14109</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9">
+      <c r="L41" s="9">
+        <v>8437</v>
+      </c>
+      <c r="M41" s="9">
+        <v>10694</v>
+      </c>
+      <c r="N41" s="9">
         <v>8819</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O41" s="9">
         <v>10074</v>
       </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9">
+      <c r="P41" s="9">
+        <v>12844</v>
+      </c>
+      <c r="Q41" s="9">
         <v>9899</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R41" s="9">
         <v>10211</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S41" s="9">
         <v>10058</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T41" s="9">
         <v>10408</v>
       </c>
-      <c r="V35" s="9">
-        <v>8437</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22">
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="42" spans="2:53">
+      <c r="B42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C42" s="9">
         <v>1509</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D42" s="9">
         <v>1551</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E42" s="9">
         <v>1568</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F42" s="9">
         <v>1670</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G42" s="9">
         <v>1725</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H42" s="9">
         <v>1777</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I42" s="9">
         <v>3684</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J42" s="9">
         <v>6389</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K42" s="9">
         <v>6050</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9">
+      <c r="L42" s="9">
+        <v>6128</v>
+      </c>
+      <c r="M42" s="9">
+        <v>3125</v>
+      </c>
+      <c r="N42" s="9">
         <v>3250</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O42" s="9">
         <v>3170</v>
       </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9">
+      <c r="P42" s="9">
+        <v>3249</v>
+      </c>
+      <c r="Q42" s="9">
         <v>3266</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R42" s="9">
         <v>2938</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S42" s="9">
         <v>3015</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T42" s="9">
         <v>3328</v>
       </c>
-      <c r="V36" s="9">
-        <v>6128</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22">
-      <c r="B37" s="5" t="s">
+    </row>
+    <row r="43" spans="2:53">
+      <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="9">
-        <f t="shared" ref="C37:G37" si="48">0.84*C41</f>
+      <c r="C43" s="9">
+        <f t="shared" ref="C43:G43" si="86">0.84*C47</f>
         <v>59860.079999999994</v>
       </c>
-      <c r="D37" s="9">
-        <f t="shared" si="48"/>
+      <c r="D43" s="9">
+        <f t="shared" si="86"/>
         <v>59819.759999999995</v>
       </c>
-      <c r="E37" s="9">
-        <f t="shared" si="48"/>
+      <c r="E43" s="9">
+        <f t="shared" si="86"/>
         <v>61303.199999999997</v>
       </c>
-      <c r="F37" s="9">
-        <f t="shared" si="48"/>
+      <c r="F43" s="9">
+        <f t="shared" si="86"/>
         <v>62496</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="48"/>
+      <c r="G43" s="9">
+        <f t="shared" si="86"/>
         <v>63682.92</v>
       </c>
-      <c r="H37" s="9">
-        <f>0.84*H41</f>
+      <c r="H43" s="9">
+        <f>0.84*H47</f>
         <v>64683.360000000001</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I43" s="9">
         <v>110668</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J43" s="9">
         <v>107801</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K43" s="9">
         <v>107014</v>
       </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9">
+      <c r="L43" s="9">
+        <v>109026</v>
+      </c>
+      <c r="M43" s="9">
+        <v>103954</v>
+      </c>
+      <c r="N43" s="9">
         <v>102454</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O43" s="9">
         <v>102718</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9">
+      <c r="P43" s="9">
+        <v>99926</v>
+      </c>
+      <c r="Q43" s="9">
         <v>100483</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R43" s="9">
         <v>101251</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S43" s="9">
         <v>101511</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T43" s="9">
         <v>102122</v>
       </c>
-      <c r="V37" s="9">
-        <v>109026</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22">
-      <c r="B38" s="5" t="s">
+    </row>
+    <row r="44" spans="2:53">
+      <c r="B44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="9">
-        <f t="shared" ref="C38:G38" si="49">0.06*C41</f>
+      <c r="C44" s="9">
+        <f t="shared" ref="C44:G44" si="87">0.06*C47</f>
         <v>4275.72</v>
       </c>
-      <c r="D38" s="9">
-        <f t="shared" si="49"/>
+      <c r="D44" s="9">
+        <f t="shared" si="87"/>
         <v>4272.84</v>
       </c>
-      <c r="E38" s="9">
-        <f t="shared" si="49"/>
+      <c r="E44" s="9">
+        <f t="shared" si="87"/>
         <v>4378.8</v>
       </c>
-      <c r="F38" s="9">
-        <f t="shared" si="49"/>
+      <c r="F44" s="9">
+        <f t="shared" si="87"/>
         <v>4464</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="49"/>
+      <c r="G44" s="9">
+        <f t="shared" si="87"/>
         <v>4548.78</v>
       </c>
-      <c r="H38" s="9">
-        <f>0.06*H41</f>
+      <c r="H44" s="9">
+        <f>0.06*H47</f>
         <v>4620.24</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I44" s="9">
         <v>7092</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J44" s="9">
         <v>7172</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K44" s="9">
         <v>7187</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9">
+      <c r="L44" s="9">
+        <v>7204</v>
+      </c>
+      <c r="M44" s="9">
+        <v>7254</v>
+      </c>
+      <c r="N44" s="9">
         <v>7356</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O44" s="9">
         <v>7387</v>
       </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9">
+      <c r="P44" s="9">
+        <v>7433</v>
+      </c>
+      <c r="Q44" s="9">
         <v>7468</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R44" s="9">
         <v>7571</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S44" s="9">
         <v>7588</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T44" s="9">
         <v>7629</v>
       </c>
-      <c r="V38" s="9">
-        <v>7204</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22">
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="45" spans="2:53">
+      <c r="B45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="9">
-        <f t="shared" ref="C39:G39" si="50">0.07*C41</f>
+      <c r="C45" s="9">
+        <f t="shared" ref="C45:G45" si="88">0.07*C47</f>
         <v>4988.34</v>
       </c>
-      <c r="D39" s="9">
-        <f t="shared" si="50"/>
+      <c r="D45" s="9">
+        <f t="shared" si="88"/>
         <v>4984.9800000000005</v>
       </c>
-      <c r="E39" s="9">
-        <f t="shared" si="50"/>
+      <c r="E45" s="9">
+        <f t="shared" si="88"/>
         <v>5108.6000000000004</v>
       </c>
-      <c r="F39" s="9">
-        <f t="shared" si="50"/>
+      <c r="F45" s="9">
+        <f t="shared" si="88"/>
         <v>5208.0000000000009</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="50"/>
+      <c r="G45" s="9">
+        <f t="shared" si="88"/>
         <v>5306.9100000000008</v>
       </c>
-      <c r="H39" s="9">
-        <f>0.07*H41</f>
+      <c r="H45" s="9">
+        <f>0.07*H47</f>
         <v>5390.2800000000007</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I45" s="9">
         <v>8133</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J45" s="9">
         <v>8176</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K45" s="9">
         <v>8189</v>
       </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9">
+      <c r="L45" s="9">
+        <v>8210</v>
+      </c>
+      <c r="M45" s="9">
+        <v>8211</v>
+      </c>
+      <c r="N45" s="9">
         <v>8232</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O45" s="9">
         <v>8249</v>
       </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9">
+      <c r="P45" s="9">
+        <v>8276</v>
+      </c>
+      <c r="Q45" s="9">
         <v>8304</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R45" s="9">
         <v>8371</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S45" s="9">
         <v>7483</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T45" s="9">
         <v>7577</v>
       </c>
-      <c r="V39" s="9">
-        <v>8210</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22">
-      <c r="B40" s="5" t="s">
+    </row>
+    <row r="46" spans="2:53">
+      <c r="B46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="9">
-        <f t="shared" ref="C40:G40" si="51">0.01*C41</f>
+      <c r="C46" s="9">
+        <f t="shared" ref="C46:G46" si="89">0.01*C47</f>
         <v>712.62</v>
       </c>
-      <c r="D40" s="9">
-        <f t="shared" si="51"/>
+      <c r="D46" s="9">
+        <f t="shared" si="89"/>
         <v>712.14</v>
       </c>
-      <c r="E40" s="9">
-        <f t="shared" si="51"/>
+      <c r="E46" s="9">
+        <f t="shared" si="89"/>
         <v>729.80000000000007</v>
       </c>
-      <c r="F40" s="9">
-        <f t="shared" si="51"/>
+      <c r="F46" s="9">
+        <f t="shared" si="89"/>
         <v>744</v>
       </c>
-      <c r="G40" s="9">
-        <f t="shared" si="51"/>
+      <c r="G46" s="9">
+        <f t="shared" si="89"/>
         <v>758.13</v>
       </c>
-      <c r="H40" s="9">
-        <f>0.01*H41</f>
+      <c r="H46" s="9">
+        <f>0.01*H47</f>
         <v>770.04</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I46" s="9">
         <v>1397</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J46" s="9">
         <v>1118</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K46" s="9">
         <v>1072</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9">
+      <c r="L46" s="9">
+        <v>1083</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1040</v>
+      </c>
+      <c r="N46" s="9">
         <v>922</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O46" s="9">
         <v>924</v>
       </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9">
+      <c r="P46" s="9">
+        <v>931</v>
+      </c>
+      <c r="Q46" s="9">
         <v>937</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R46" s="9">
         <v>964</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S46" s="9">
         <v>960</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T46" s="9">
         <v>973</v>
       </c>
-      <c r="V40" s="9">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22">
-      <c r="B41" s="5" t="s">
+    </row>
+    <row r="47" spans="2:53">
+      <c r="B47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C47" s="9">
         <f>31344+39918</f>
         <v>71262</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D47" s="9">
         <f>30432+40782</f>
         <v>71214</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E47" s="9">
         <v>72980</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F47" s="9">
         <v>74400</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G47" s="9">
         <f>31900+43913</f>
         <v>75813</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H47" s="9">
         <f>32115+44889</f>
         <v>77004</v>
       </c>
-      <c r="I41" s="9">
-        <f t="shared" ref="I41" si="52">SUM(I37:I40)</f>
+      <c r="I47" s="9">
+        <f t="shared" ref="I47" si="90">SUM(I43:I46)</f>
         <v>127290</v>
       </c>
-      <c r="J41" s="9">
-        <f t="shared" ref="J41" si="53">SUM(J37:J40)</f>
+      <c r="J47" s="9">
+        <f t="shared" ref="J47" si="91">SUM(J43:J46)</f>
         <v>124267</v>
       </c>
-      <c r="K41" s="9">
-        <f t="shared" ref="K41:S41" si="54">SUM(K37:K40)</f>
+      <c r="K47" s="9">
+        <f t="shared" ref="K47:S47" si="92">SUM(K43:K46)</f>
         <v>123462</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9">
-        <f t="shared" si="54"/>
+      <c r="L47" s="9">
+        <f>SUM(L43:L46)</f>
+        <v>125523</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="92"/>
+        <v>120459</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="92"/>
         <v>118964</v>
       </c>
-      <c r="O41" s="9">
-        <f t="shared" si="54"/>
+      <c r="O47" s="9">
+        <f t="shared" si="92"/>
         <v>119278</v>
       </c>
-      <c r="P41" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="54"/>
+      <c r="P47" s="9">
+        <f t="shared" si="92"/>
+        <v>116566</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="92"/>
         <v>117192</v>
       </c>
-      <c r="R41" s="9">
-        <f t="shared" si="54"/>
+      <c r="R47" s="9">
+        <f t="shared" si="92"/>
         <v>118157</v>
       </c>
-      <c r="S41" s="9">
-        <f t="shared" si="54"/>
+      <c r="S47" s="9">
+        <f t="shared" si="92"/>
         <v>117542</v>
       </c>
-      <c r="T41" s="9">
-        <f>SUM(T37:T40)</f>
+      <c r="T47" s="9">
+        <f>SUM(T43:T46)</f>
         <v>118301</v>
       </c>
-      <c r="V41" s="9">
-        <f>SUM(V37:V40)</f>
-        <v>125523</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22">
-      <c r="B42" s="5" t="s">
+    </row>
+    <row r="48" spans="2:53">
+      <c r="B48" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C48" s="10">
         <v>42208</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D48" s="10">
         <v>44067</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E48" s="10">
         <v>44957</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F48" s="10">
         <v>43854</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G48" s="10">
         <v>44380</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H48" s="10">
         <v>44770</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I48" s="10">
         <v>125443</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J48" s="10">
         <v>109330</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K48" s="9">
         <v>101643</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9">
+      <c r="L48" s="9">
+        <v>89452</v>
+      </c>
+      <c r="M48" s="9">
+        <v>84434</v>
+      </c>
+      <c r="N48" s="9">
         <v>80064</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O48" s="9">
         <v>79355</v>
       </c>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9">
+      <c r="P48" s="9">
+        <v>79937</v>
+      </c>
+      <c r="Q48" s="9">
         <v>75758</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R48" s="9">
         <v>75036</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S48" s="9">
         <v>74222</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T48" s="9">
         <v>74221</v>
       </c>
-      <c r="V42" s="9">
+    </row>
+    <row r="49" spans="1:24">
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>5443</v>
+      </c>
+      <c r="F49" s="10">
+        <v>4885</v>
+      </c>
+      <c r="G49" s="10">
+        <v>5261</v>
+      </c>
+      <c r="H49" s="10">
+        <v>5445</v>
+      </c>
+      <c r="I49" s="10">
+        <v>6789</v>
+      </c>
+      <c r="J49" s="10">
+        <v>7050</v>
+      </c>
+      <c r="K49" s="9">
+        <v>3845</v>
+      </c>
+      <c r="L49" s="9">
+        <v>3034</v>
+      </c>
+      <c r="M49" s="9">
+        <v>2682</v>
+      </c>
+      <c r="N49" s="9">
+        <v>2987</v>
+      </c>
+      <c r="O49" s="9">
+        <v>3416</v>
+      </c>
+      <c r="P49" s="9">
+        <v>3544</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>3713</v>
+      </c>
+      <c r="R49" s="9">
+        <v>3899</v>
+      </c>
+      <c r="S49" s="9">
+        <v>4664</v>
+      </c>
+      <c r="T49" s="9">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="B50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="10">
+        <v>10309</v>
+      </c>
+      <c r="D50" s="10">
+        <v>10312</v>
+      </c>
+      <c r="E50" s="10">
+        <v>10198</v>
+      </c>
+      <c r="F50" s="10">
+        <v>10201</v>
+      </c>
+      <c r="G50" s="10">
+        <v>10203</v>
+      </c>
+      <c r="H50" s="10">
+        <v>10155</v>
+      </c>
+      <c r="I50" s="10">
+        <v>47583</v>
+      </c>
+      <c r="J50" s="10">
+        <v>38537</v>
+      </c>
+      <c r="K50" s="9">
+        <v>36058</v>
+      </c>
+      <c r="L50" s="9">
+        <v>36034</v>
+      </c>
+      <c r="M50" s="9">
+        <v>35899</v>
+      </c>
+      <c r="N50" s="9">
+        <v>35745</v>
+      </c>
+      <c r="O50" s="9">
+        <v>35466</v>
+      </c>
+      <c r="P50" s="9">
+        <v>35352</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>30915</v>
+      </c>
+      <c r="R50" s="9">
+        <v>29431</v>
+      </c>
+      <c r="S50" s="9">
+        <v>25865</v>
+      </c>
+      <c r="T50" s="9">
+        <v>21743</v>
+      </c>
+      <c r="U50" s="9">
+        <f>T50</f>
+        <v>21743</v>
+      </c>
+      <c r="V50" s="9">
+        <f t="shared" ref="V50:X50" si="93">U50</f>
+        <v>21743</v>
+      </c>
+      <c r="W50" s="9">
+        <f t="shared" si="93"/>
+        <v>21743</v>
+      </c>
+      <c r="X50" s="9">
+        <f t="shared" si="93"/>
+        <v>21743</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="B51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="10">
+        <v>20722</v>
+      </c>
+      <c r="D51" s="10">
+        <v>20931</v>
+      </c>
+      <c r="E51" s="10">
+        <v>21493</v>
+      </c>
+      <c r="F51" s="10">
+        <v>21330</v>
+      </c>
+      <c r="G51" s="10">
+        <v>21236</v>
+      </c>
+      <c r="H51" s="10">
+        <v>21347</v>
+      </c>
+      <c r="I51" s="10">
+        <v>36080</v>
+      </c>
+      <c r="J51" s="10">
+        <v>34232</v>
+      </c>
+      <c r="K51" s="9">
+        <v>31295</v>
+      </c>
+      <c r="L51" s="9">
+        <v>23346</v>
+      </c>
+      <c r="M51" s="9">
+        <v>19860</v>
+      </c>
+      <c r="N51" s="9">
+        <v>18573</v>
+      </c>
+      <c r="O51" s="9">
+        <v>18300</v>
+      </c>
+      <c r="P51" s="9">
+        <v>18244</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>18873</v>
+      </c>
+      <c r="R51" s="9">
+        <v>20327</v>
+      </c>
+      <c r="S51" s="9">
+        <v>24907</v>
+      </c>
+      <c r="T51" s="9">
+        <v>27830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="B52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="10">
+        <v>42808</v>
+      </c>
+      <c r="D52" s="10">
+        <v>44067</v>
+      </c>
+      <c r="E52" s="10">
+        <v>44957</v>
+      </c>
+      <c r="F52" s="10">
+        <v>43854</v>
+      </c>
+      <c r="G52" s="10">
+        <v>44380</v>
+      </c>
+      <c r="H52" s="10">
+        <v>44770</v>
+      </c>
+      <c r="I52" s="10">
+        <v>125443</v>
+      </c>
+      <c r="J52" s="10">
+        <v>109330</v>
+      </c>
+      <c r="K52" s="9">
+        <v>101643</v>
+      </c>
+      <c r="L52" s="9">
         <v>89452</v>
       </c>
-    </row>
-    <row r="43" spans="2:22">
-      <c r="B43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
-        <v>5443</v>
-      </c>
-      <c r="F43" s="10">
-        <v>4885</v>
-      </c>
-      <c r="G43" s="10">
-        <v>5261</v>
-      </c>
-      <c r="H43" s="10">
-        <v>5445</v>
-      </c>
-      <c r="I43" s="10">
-        <v>6789</v>
-      </c>
-      <c r="J43" s="10">
-        <v>7050</v>
-      </c>
-      <c r="K43" s="9">
-        <v>3845</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9">
-        <v>2987</v>
-      </c>
-      <c r="O43" s="9">
-        <v>3416</v>
-      </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9">
-        <v>3713</v>
-      </c>
-      <c r="R43" s="9">
-        <v>3899</v>
-      </c>
-      <c r="S43" s="9">
-        <v>4664</v>
-      </c>
-      <c r="T43" s="9">
-        <v>5197</v>
-      </c>
-      <c r="V43" s="9">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22">
-      <c r="B44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="10">
-        <v>10309</v>
-      </c>
-      <c r="D44" s="10">
-        <v>10312</v>
-      </c>
-      <c r="E44" s="10">
-        <v>10198</v>
-      </c>
-      <c r="F44" s="10">
-        <v>10201</v>
-      </c>
-      <c r="G44" s="10">
-        <v>10203</v>
-      </c>
-      <c r="H44" s="10">
-        <v>10155</v>
-      </c>
-      <c r="I44" s="10">
-        <v>47583</v>
-      </c>
-      <c r="J44" s="10">
-        <v>38537</v>
-      </c>
-      <c r="K44" s="9">
-        <v>36058</v>
-      </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9">
-        <v>35745</v>
-      </c>
-      <c r="O44" s="9">
-        <v>35466</v>
-      </c>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9">
-        <v>30915</v>
-      </c>
-      <c r="R44" s="9">
-        <v>29431</v>
-      </c>
-      <c r="S44" s="9">
-        <v>25865</v>
-      </c>
-      <c r="T44" s="9">
-        <v>21743</v>
-      </c>
-      <c r="V44" s="9">
-        <v>36034</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22">
-      <c r="B45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="10">
-        <v>20722</v>
-      </c>
-      <c r="D45" s="10">
-        <v>20931</v>
-      </c>
-      <c r="E45" s="10">
-        <v>21493</v>
-      </c>
-      <c r="F45" s="10">
-        <v>21330</v>
-      </c>
-      <c r="G45" s="10">
-        <v>21236</v>
-      </c>
-      <c r="H45" s="10">
-        <v>21347</v>
-      </c>
-      <c r="I45" s="10">
-        <v>36080</v>
-      </c>
-      <c r="J45" s="10">
-        <v>34232</v>
-      </c>
-      <c r="K45" s="9">
-        <v>31295</v>
-      </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9">
-        <v>18573</v>
-      </c>
-      <c r="O45" s="9">
-        <v>18300</v>
-      </c>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9">
-        <v>18873</v>
-      </c>
-      <c r="R45" s="9">
-        <v>20327</v>
-      </c>
-      <c r="S45" s="9">
-        <v>24907</v>
-      </c>
-      <c r="T45" s="9">
-        <v>27830</v>
-      </c>
-      <c r="V45" s="9">
-        <v>23346</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22">
-      <c r="B46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="10">
-        <v>42808</v>
-      </c>
-      <c r="D46" s="10">
-        <v>44067</v>
-      </c>
-      <c r="E46" s="10">
-        <v>44957</v>
-      </c>
-      <c r="F46" s="10">
-        <v>43854</v>
-      </c>
-      <c r="G46" s="10">
-        <v>44380</v>
-      </c>
-      <c r="H46" s="10">
-        <v>44770</v>
-      </c>
-      <c r="I46" s="10">
-        <v>125443</v>
-      </c>
-      <c r="J46" s="10">
-        <v>109330</v>
-      </c>
-      <c r="K46" s="9">
-        <v>101643</v>
-      </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9">
+      <c r="M52" s="9">
+        <v>84434</v>
+      </c>
+      <c r="N52" s="9">
         <v>80064</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O52" s="9">
         <v>79355</v>
       </c>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9">
+      <c r="P52" s="9">
+        <v>79937</v>
+      </c>
+      <c r="Q52" s="9">
         <v>75758</v>
       </c>
-      <c r="R46" s="9">
+      <c r="R52" s="9">
         <v>75036</v>
       </c>
-      <c r="S46" s="9">
+      <c r="S52" s="9">
         <v>74222</v>
       </c>
-      <c r="T46" s="9">
+      <c r="T52" s="9">
         <v>74221</v>
       </c>
-      <c r="V46" s="9">
-        <v>89452</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22">
-      <c r="B48" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="5" t="s">
+    </row>
+    <row r="54" spans="1:24">
+      <c r="B54" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="7">
+        <f>G37/C37-1</f>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" ref="H54:T54" si="94">H37/D37-1</f>
+        <v>0.28560939794419982</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="94"/>
+        <v>0.7921462423832093</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="94"/>
+        <v>0.15957797560171438</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="94"/>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="L54" s="7">
+        <f t="shared" si="94"/>
+        <v>-0.35179897201599086</v>
+      </c>
+      <c r="M54" s="7">
+        <f t="shared" si="94"/>
+        <v>-0.63222516055912359</v>
+      </c>
+      <c r="N54" s="7">
+        <f t="shared" si="94"/>
+        <v>-0.38072220642593124</v>
+      </c>
+      <c r="O54" s="7">
+        <f t="shared" si="94"/>
+        <v>8.3959346000883839E-2</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" si="94"/>
+        <v>3.1841409691629954</v>
+      </c>
+      <c r="Q54" s="7">
+        <f t="shared" si="94"/>
+        <v>0.17051874678993317</v>
+      </c>
+      <c r="R54" s="7">
+        <f t="shared" si="94"/>
+        <v>0.26905417814508725</v>
+      </c>
+      <c r="S54" s="7">
+        <f t="shared" si="94"/>
+        <v>-0.22176926212800652</v>
+      </c>
+      <c r="T54" s="7">
+        <f t="shared" si="94"/>
+        <v>-0.71320277953253308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="B55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="7">
+        <f>G50/C50-1</f>
+        <v>-1.0282277621495806E-2</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" ref="H55:T55" si="95">H50/D50-1</f>
+        <v>-1.5224980605120231E-2</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="95"/>
+        <v>3.6659148852716221</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="95"/>
+        <v>2.7777668855994508</v>
+      </c>
+      <c r="K55" s="7">
+        <f t="shared" si="95"/>
+        <v>2.5340586102126825</v>
+      </c>
+      <c r="L55" s="7">
+        <f t="shared" si="95"/>
+        <v>2.5483998030526833</v>
+      </c>
+      <c r="M55" s="7">
+        <f t="shared" si="95"/>
+        <v>-0.2455498812601139</v>
+      </c>
+      <c r="N55" s="7">
+        <f t="shared" si="95"/>
+        <v>-7.2449853387653418E-2</v>
+      </c>
+      <c r="O55" s="7">
+        <f t="shared" si="95"/>
+        <v>-1.6417993233124428E-2</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" si="95"/>
+        <v>-1.8926569351168321E-2</v>
+      </c>
+      <c r="Q55" s="7">
+        <f t="shared" si="95"/>
+        <v>-0.13883395080642913</v>
+      </c>
+      <c r="R55" s="7">
+        <f t="shared" si="95"/>
+        <v>-0.17664008952301025</v>
+      </c>
+      <c r="S55" s="7">
+        <f t="shared" si="95"/>
+        <v>-0.27070997575142386</v>
+      </c>
+      <c r="T55" s="7">
+        <f t="shared" si="95"/>
+        <v>-0.38495700384702425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="B56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="7">
+        <f>G47/C47-1</f>
+        <v>6.3862928348909609E-2</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" ref="H56:T56" si="96">H47/D47-1</f>
+        <v>8.1304237930744039E-2</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="96"/>
+        <v>0.7441764867086873</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="96"/>
+        <v>0.67025537634408594</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" si="96"/>
+        <v>0.62850698429029328</v>
+      </c>
+      <c r="L56" s="7">
+        <f t="shared" si="96"/>
+        <v>0.63008415147265073</v>
+      </c>
+      <c r="M56" s="7">
+        <f t="shared" si="96"/>
+        <v>-5.3664859769031348E-2</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="96"/>
+        <v>-4.2674241753643316E-2</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" si="96"/>
+        <v>-3.3888969885470854E-2</v>
+      </c>
+      <c r="P56" s="7">
+        <f t="shared" si="96"/>
+        <v>-7.1357440469077327E-2</v>
+      </c>
+      <c r="Q56" s="7">
+        <f t="shared" si="96"/>
+        <v>-2.7121261176001776E-2</v>
+      </c>
+      <c r="R56" s="7">
+        <f t="shared" si="96"/>
+        <v>-6.7835647758985873E-3</v>
+      </c>
+      <c r="S56" s="7">
+        <f t="shared" si="96"/>
+        <v>-1.4554234645114739E-2</v>
+      </c>
+      <c r="T56" s="7">
+        <f t="shared" si="96"/>
+        <v>1.488427157147032E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="7"/>
+      <c r="B57" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" s="7" customFormat="1">
-      <c r="B50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="7">
-        <f t="shared" ref="D50" si="55">D44/C44-1</f>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7">
+        <f>D50/C50-1</f>
         <v>2.9100785721225542E-4</v>
       </c>
-      <c r="E50" s="7">
-        <f t="shared" ref="E50" si="56">E44/D44-1</f>
+      <c r="E57" s="7">
+        <f>E50/D50-1</f>
         <v>-1.1055081458494986E-2</v>
       </c>
-      <c r="F50" s="7">
-        <f t="shared" ref="F50" si="57">F44/E44-1</f>
+      <c r="F57" s="7">
+        <f>F50/E50-1</f>
         <v>2.9417532849573824E-4</v>
       </c>
-      <c r="G50" s="7">
-        <f t="shared" ref="G50" si="58">G44/F44-1</f>
+      <c r="G57" s="7">
+        <f>G50/F50-1</f>
         <v>1.9605920988130521E-4</v>
       </c>
-      <c r="H50" s="7">
-        <f t="shared" ref="H50" si="59">H44/G44-1</f>
+      <c r="H57" s="7">
+        <f>H50/G50-1</f>
         <v>-4.7044986768597363E-3</v>
       </c>
-      <c r="I50" s="7">
-        <f t="shared" ref="I50" si="60">I44/H44-1</f>
+      <c r="I57" s="7">
+        <f>I50/H50-1</f>
         <v>3.6856720827178728</v>
       </c>
-      <c r="J50" s="7">
-        <f t="shared" ref="J50" si="61">J44/I44-1</f>
+      <c r="J57" s="7">
+        <f>J50/I50-1</f>
         <v>-0.1901099132042956</v>
       </c>
-      <c r="K50" s="7">
-        <f t="shared" ref="K50" si="62">K44/J44-1</f>
+      <c r="K57" s="7">
+        <f>K50/J50-1</f>
         <v>-6.4327788878220882E-2</v>
       </c>
-      <c r="L50" s="7">
-        <f>V44/K44-1</f>
+      <c r="L57" s="7">
+        <f>L50/K50-1</f>
         <v>-6.6559432026180865E-4</v>
       </c>
-      <c r="M50" s="7">
-        <f>M44/V44-1</f>
-        <v>-1</v>
-      </c>
-      <c r="N50" s="7" t="e">
-        <f t="shared" ref="N50" si="63">N44/M44-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="7">
-        <f t="shared" ref="O50" si="64">O44/N44-1</f>
+      <c r="M57" s="7">
+        <f>M50/L50-1</f>
+        <v>-3.7464616750846336E-3</v>
+      </c>
+      <c r="N57" s="7">
+        <f>N50/M50-1</f>
+        <v>-4.2898130867154993E-3</v>
+      </c>
+      <c r="O57" s="7">
+        <f>O50/N50-1</f>
         <v>-7.8052874527906324E-3</v>
       </c>
-      <c r="P50" s="7">
-        <f t="shared" ref="P50" si="65">P44/O44-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q50" s="7" t="e">
-        <f t="shared" ref="Q50" si="66">Q44/P44-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R50" s="7">
-        <f t="shared" ref="R50:S50" si="67">R44/Q44-1</f>
+      <c r="P57" s="7">
+        <f>P50/O50-1</f>
+        <v>-3.2143461343258073E-3</v>
+      </c>
+      <c r="Q57" s="7">
+        <f>Q50/P50-1</f>
+        <v>-0.12550916496945008</v>
+      </c>
+      <c r="R57" s="7">
+        <f>R50/Q50-1</f>
         <v>-4.8002587740578972E-2</v>
       </c>
-      <c r="S50" s="7">
-        <f t="shared" si="67"/>
+      <c r="S57" s="7">
+        <f>S50/R50-1</f>
         <v>-0.12116475824810569</v>
       </c>
-      <c r="T50" s="7">
-        <f>T44/S44-1</f>
+      <c r="T57" s="7">
+        <f>T50/S50-1</f>
         <v>-0.1593659385269669</v>
       </c>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20">
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="2:20">
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="2:20">
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-    </row>
-    <row r="1048576" spans="23:23">
-      <c r="W1048576" s="3">
-        <f>X1048576-SUM(C1048576:E1048576)</f>
-        <v>0</v>
-      </c>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3389,7 +6217,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="T41" formulaRange="1"/>
+    <ignoredError sqref="T47" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC327B-8075-41F0-B191-D4BC39D94ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE21075-5678-40C7-BD6E-02BA6F83E070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,10 +905,10 @@
   <dimension ref="A1:DF61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA31" sqref="BA31"/>
+      <selection pane="bottomRight" activeCell="BA30" sqref="BA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2493,7 +2493,7 @@
       <c r="AR13" s="14"/>
       <c r="AS13" s="14"/>
       <c r="AT13" s="14">
-        <f t="shared" ref="AT13:AW13" si="25">AT3/AT11</f>
+        <f t="shared" ref="AT13:AV13" si="25">AT3/AT11</f>
         <v>0.48827506073729798</v>
       </c>
       <c r="AU13" s="14">
@@ -2620,7 +2620,7 @@
       <c r="AR14" s="14"/>
       <c r="AS14" s="14"/>
       <c r="AT14" s="14">
-        <f t="shared" ref="AT14:AW14" si="28">AT4/AT10</f>
+        <f t="shared" ref="AT14:AV14" si="28">AT4/AT10</f>
         <v>4.440874035989717E-2</v>
       </c>
       <c r="AU14" s="14">
@@ -2747,7 +2747,7 @@
       <c r="AR15" s="14"/>
       <c r="AS15" s="14"/>
       <c r="AT15" s="14">
-        <f t="shared" ref="AT15:AW15" si="31">AT5/AT10</f>
+        <f t="shared" ref="AT15:AV15" si="31">AT5/AT10</f>
         <v>3.1812339331619539E-2</v>
       </c>
       <c r="AU15" s="14">
@@ -2874,7 +2874,7 @@
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
       <c r="AT16" s="14">
-        <f t="shared" ref="AT16:AW16" si="34">AT7/AT10</f>
+        <f t="shared" ref="AT16:AV16" si="34">AT7/AT10</f>
         <v>0.29871465295629818</v>
       </c>
       <c r="AU16" s="14">
@@ -3861,19 +3861,19 @@
         <v>1311</v>
       </c>
       <c r="AT25" s="9">
-        <f t="shared" ref="AT25:AT27" si="63">SUM(C25:F25)</f>
+        <f t="shared" ref="AT25:AT26" si="63">SUM(C25:F25)</f>
         <v>4131</v>
       </c>
       <c r="AU25" s="9">
-        <f t="shared" ref="AU25:AU27" si="64">SUM(G25:J25)</f>
+        <f t="shared" ref="AU25:AU26" si="64">SUM(G25:J25)</f>
         <v>-522</v>
       </c>
       <c r="AV25" s="9">
-        <f t="shared" ref="AV25:AV27" si="65">SUM(K25:N25)</f>
+        <f t="shared" ref="AV25:AV26" si="65">SUM(K25:N25)</f>
         <v>-14831</v>
       </c>
       <c r="AW25" s="9">
-        <f t="shared" ref="AW25:AW27" si="66">SUM(O25:R25)</f>
+        <f t="shared" ref="AW25:AW26" si="66">SUM(O25:R25)</f>
         <v>2322</v>
       </c>
       <c r="AX25" s="9">
@@ -4333,7 +4333,7 @@
         <v>68</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:T29" si="71">G27/F27-1</f>
+        <f t="shared" ref="G29:S29" si="71">G27/F27-1</f>
         <v>-2.6702269692924219E-3</v>
       </c>
       <c r="H29" s="7">
@@ -4539,6 +4539,30 @@
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
+      <c r="AR31" s="7">
+        <f t="shared" ref="AR31:AW31" si="74">AR11/AQ11-1</f>
+        <v>-0.18119536971415073</v>
+      </c>
+      <c r="AS31" s="7">
+        <f t="shared" si="74"/>
+        <v>0.27659165224081561</v>
+      </c>
+      <c r="AT31" s="7">
+        <f t="shared" si="74"/>
+        <v>0.4263974687358747</v>
+      </c>
+      <c r="AU31" s="7">
+        <f t="shared" si="74"/>
+        <v>0.14872715749445442</v>
+      </c>
+      <c r="AV31" s="7">
+        <f t="shared" si="74"/>
+        <v>-0.25236781609195402</v>
+      </c>
+      <c r="AW31" s="7">
+        <f>AW11/AV11-1</f>
+        <v>0.61822766127544426</v>
+      </c>
       <c r="AZ31" s="20" t="s">
         <v>76</v>
       </c>
@@ -4552,59 +4576,59 @@
         <v>73</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" ref="G32:T32" si="74">G11/C11-1</f>
+        <f t="shared" ref="G32:T32" si="75">G11/C11-1</f>
         <v>6.9019607843137321E-2</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.3514887436455965E-2</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-4.9384715025906689E-2</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.52311536859641805</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.57764734653949623</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.33512064343163539</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.44081076477601766</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.51449275362318847</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.15067431405983567</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.019489247311828</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.0758452634785258</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.2557026189805689</v>
       </c>
       <c r="S32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.55740098558131046</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.78618968386023291</v>
       </c>
       <c r="U32" s="7"/>
@@ -4637,75 +4661,75 @@
         <v>61</v>
       </c>
       <c r="C33" s="7">
-        <f>C23/C11</f>
+        <f t="shared" ref="C33:T33" si="76">C23/C11</f>
         <v>0.25725490196078432</v>
       </c>
       <c r="D33" s="7">
-        <f>D23/D11</f>
+        <f t="shared" si="76"/>
         <v>0.25950133139675624</v>
       </c>
       <c r="E33" s="7">
-        <f>E23/E11</f>
+        <f t="shared" si="76"/>
         <v>0.40349740932642486</v>
       </c>
       <c r="F33" s="7">
-        <f>F23/F11</f>
+        <f t="shared" si="76"/>
         <v>0.15181174510620574</v>
       </c>
       <c r="G33" s="7">
-        <f>G23/G11</f>
+        <f t="shared" si="76"/>
         <v>0.19148936170212766</v>
       </c>
       <c r="H33" s="7">
-        <f>H23/H11</f>
+        <f t="shared" si="76"/>
         <v>0.18856121537086684</v>
       </c>
       <c r="I33" s="7">
-        <f>I23/I11</f>
+        <f t="shared" si="76"/>
         <v>-0.11786748424459206</v>
       </c>
       <c r="J33" s="7">
-        <f>J23/J11</f>
+        <f t="shared" si="76"/>
         <v>-0.16229149576155319</v>
       </c>
       <c r="K33" s="7">
-        <f>K23/K11</f>
+        <f t="shared" si="76"/>
         <v>-0.2134552782514339</v>
       </c>
       <c r="L33" s="7">
-        <f>L23/L11</f>
+        <f t="shared" si="76"/>
         <v>-2.7893145161290325</v>
       </c>
       <c r="M33" s="7">
-        <f>M23/M11</f>
+        <f t="shared" si="76"/>
         <v>-1.300335059396893</v>
       </c>
       <c r="N33" s="7">
-        <f>N23/N11</f>
+        <f t="shared" si="76"/>
         <v>-0.48014643762320475</v>
       </c>
       <c r="O33" s="7">
-        <f>O23/O11</f>
+        <f t="shared" si="76"/>
         <v>-3.7415586785909838E-2</v>
       </c>
       <c r="P33" s="7">
-        <f>P23/P11</f>
+        <f t="shared" si="76"/>
         <v>3.1114808652246258E-2</v>
       </c>
       <c r="Q33" s="7">
-        <f>Q23/Q11</f>
+        <f t="shared" si="76"/>
         <v>0.15847395451210564</v>
       </c>
       <c r="R33" s="7">
-        <f>R23/R11</f>
+        <f t="shared" si="76"/>
         <v>0.23595505617977527</v>
       </c>
       <c r="S33" s="7">
-        <f>S23/S11</f>
+        <f t="shared" si="76"/>
         <v>0.3613031759053088</v>
       </c>
       <c r="T33" s="7">
-        <f>T23/T11</f>
+        <f t="shared" si="76"/>
         <v>0.43390777829529575</v>
       </c>
       <c r="W33" s="7"/>
@@ -4718,75 +4742,75 @@
         <v>56</v>
       </c>
       <c r="C34" s="7">
-        <f>C24/C23</f>
+        <f t="shared" ref="C34:T34" si="77">C24/C23</f>
         <v>0.28048780487804881</v>
       </c>
       <c r="D34" s="7">
-        <f>D24/D23</f>
+        <f t="shared" si="77"/>
         <v>0.20895522388059701</v>
       </c>
       <c r="E34" s="7">
-        <f>E24/E23</f>
+        <f t="shared" si="77"/>
         <v>0.25</v>
       </c>
       <c r="F34" s="7">
-        <f>F24/F23</f>
+        <f t="shared" si="77"/>
         <v>3.1550068587105622E-2</v>
       </c>
       <c r="G34" s="7">
-        <f>G24/G23</f>
+        <f t="shared" si="77"/>
         <v>0.19412515964240101</v>
       </c>
       <c r="H34" s="7">
-        <f>H24/H23</f>
+        <f t="shared" si="77"/>
         <v>0.24763033175355451</v>
       </c>
       <c r="I34" s="7">
-        <f>I24/I23</f>
+        <f t="shared" si="77"/>
         <v>-8.6705202312138727E-2</v>
       </c>
       <c r="J34" s="7">
-        <f>J24/J23</f>
+        <f t="shared" si="77"/>
         <v>0.12721145745577084</v>
       </c>
       <c r="K34" s="7">
-        <f>K24/K23</f>
+        <f t="shared" si="77"/>
         <v>-0.46187363834422657</v>
       </c>
       <c r="L34" s="7">
-        <f>L24/L23</f>
+        <f t="shared" si="77"/>
         <v>-6.2643055053607996E-3</v>
       </c>
       <c r="M34" s="7">
-        <f>M24/M23</f>
+        <f t="shared" si="77"/>
         <v>0.16256734598266573</v>
       </c>
       <c r="N34" s="7">
-        <f>N24/N23</f>
+        <f t="shared" si="77"/>
         <v>0.47800586510263932</v>
       </c>
       <c r="O34" s="7">
-        <f>O24/O23</f>
+        <f t="shared" si="77"/>
         <v>0.28780487804878047</v>
       </c>
       <c r="P34" s="7">
-        <f>P24/P23</f>
+        <f t="shared" si="77"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="Q34" s="7">
-        <f>Q24/Q23</f>
+        <f t="shared" si="77"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="R34" s="7">
-        <f>R24/R23</f>
+        <f t="shared" si="77"/>
         <v>0.20793650793650795</v>
       </c>
       <c r="S34" s="7">
-        <f>S24/S23</f>
+        <f t="shared" si="77"/>
         <v>-0.51670450859552386</v>
       </c>
       <c r="T34" s="7">
-        <f>T24/T23</f>
+        <f t="shared" si="77"/>
         <v>0.19386002576212966</v>
       </c>
       <c r="AZ34" s="25" t="s">
@@ -4802,39 +4826,39 @@
         <v>30</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" ref="C36" si="75">C37-C50</f>
+        <f t="shared" ref="C36" si="78">C37-C50</f>
         <v>-8703</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" ref="D36" si="76">D37-D50</f>
+        <f t="shared" ref="D36" si="79">D37-D50</f>
         <v>-8950</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" ref="E36" si="77">E37-E50</f>
+        <f t="shared" ref="E36" si="80">E37-E50</f>
         <v>-7244</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" ref="F36" si="78">F37-F50</f>
+        <f t="shared" ref="F36" si="81">F37-F50</f>
         <v>-7168</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" ref="G36" si="79">G37-G50</f>
+        <f t="shared" ref="G36" si="82">G37-G50</f>
         <v>-8451</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" ref="H36" si="80">H37-H50</f>
+        <f t="shared" ref="H36" si="83">H37-H50</f>
         <v>-8404</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" ref="I36" si="81">I37-I50</f>
+        <f t="shared" ref="I36" si="84">I37-I50</f>
         <v>-42289</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" ref="J36" si="82">J37-J50</f>
+        <f t="shared" ref="J36" si="85">J37-J50</f>
         <v>-35020</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" ref="K36:S36" si="83">K37-K50</f>
+        <f t="shared" ref="K36:S36" si="86">K37-K50</f>
         <v>-33795</v>
       </c>
       <c r="L36" s="9">
@@ -4842,31 +4866,31 @@
         <v>-34899</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-33952</v>
       </c>
       <c r="N36" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-33567</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-33013</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-30603</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-28636</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-26667</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-23956</v>
       </c>
       <c r="T36" s="9">
@@ -4874,19 +4898,19 @@
         <v>-20381</v>
       </c>
       <c r="U36" s="9">
-        <f t="shared" ref="U36:X36" si="84">U37-U50</f>
+        <f t="shared" ref="U36:X36" si="87">U37-U50</f>
         <v>-16937.6414</v>
       </c>
       <c r="V36" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-12392.408047999999</v>
       </c>
       <c r="W36" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-6392.7000233599992</v>
       </c>
       <c r="X36" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>1526.9145691648009</v>
       </c>
     </row>
@@ -4962,15 +4986,15 @@
         <v>4805.3586000000005</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" ref="V37:X37" si="85">U37+V25</f>
+        <f t="shared" ref="V37:X37" si="88">U37+V25</f>
         <v>9350.5919520000007</v>
       </c>
       <c r="W37" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>15350.299976640001</v>
       </c>
       <c r="X37" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>23269.914569164801</v>
       </c>
     </row>
@@ -5274,23 +5298,23 @@
         <v>37</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ref="C43:G43" si="86">0.84*C47</f>
+        <f t="shared" ref="C43:G43" si="89">0.84*C47</f>
         <v>59860.079999999994</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>59819.759999999995</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>61303.199999999997</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>62496</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>63682.92</v>
       </c>
       <c r="H43" s="9">
@@ -5339,23 +5363,23 @@
         <v>13</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:G44" si="87">0.06*C47</f>
+        <f t="shared" ref="C44:G44" si="90">0.06*C47</f>
         <v>4275.72</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>4272.84</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>4378.8</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>4464</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>4548.78</v>
       </c>
       <c r="H44" s="9">
@@ -5404,23 +5428,23 @@
         <v>14</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" ref="C45:G45" si="88">0.07*C47</f>
+        <f t="shared" ref="C45:G45" si="91">0.07*C47</f>
         <v>4988.34</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>4984.9800000000005</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>5108.6000000000004</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>5208.0000000000009</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>5306.9100000000008</v>
       </c>
       <c r="H45" s="9">
@@ -5469,23 +5493,23 @@
         <v>38</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" ref="C46:G46" si="89">0.01*C47</f>
+        <f t="shared" ref="C46:G46" si="92">0.01*C47</f>
         <v>712.62</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>712.14</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>729.80000000000007</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>744</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>758.13</v>
       </c>
       <c r="H46" s="9">
@@ -5556,15 +5580,15 @@
         <v>77004</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" ref="I47" si="90">SUM(I43:I46)</f>
+        <f t="shared" ref="I47" si="93">SUM(I43:I46)</f>
         <v>127290</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" ref="J47" si="91">SUM(J43:J46)</f>
+        <f t="shared" ref="J47" si="94">SUM(J43:J46)</f>
         <v>124267</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" ref="K47:S47" si="92">SUM(K43:K46)</f>
+        <f t="shared" ref="K47:S47" si="95">SUM(K43:K46)</f>
         <v>123462</v>
       </c>
       <c r="L47" s="9">
@@ -5572,31 +5596,31 @@
         <v>125523</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>120459</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>118964</v>
       </c>
       <c r="O47" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>119278</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>116566</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>117192</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>118157</v>
       </c>
       <c r="S47" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>117542</v>
       </c>
       <c r="T47" s="9">
@@ -5785,15 +5809,15 @@
         <v>21743</v>
       </c>
       <c r="V50" s="9">
-        <f t="shared" ref="V50:X50" si="93">U50</f>
+        <f t="shared" ref="V50:X50" si="96">U50</f>
         <v>21743</v>
       </c>
       <c r="W50" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>21743</v>
       </c>
       <c r="X50" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>21743</v>
       </c>
     </row>
@@ -5924,55 +5948,55 @@
         <v>9.0909090909090828E-2</v>
       </c>
       <c r="H54" s="7">
-        <f t="shared" ref="H54:T54" si="94">H37/D37-1</f>
+        <f t="shared" ref="H54:T54" si="97">H37/D37-1</f>
         <v>0.28560939794419982</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.7921462423832093</v>
       </c>
       <c r="J54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.15957797560171438</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.29166666666666674</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>-0.35179897201599086</v>
       </c>
       <c r="M54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>-0.63222516055912359</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>-0.38072220642593124</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>8.3959346000883839E-2</v>
       </c>
       <c r="P54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>3.1841409691629954</v>
       </c>
       <c r="Q54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.17051874678993317</v>
       </c>
       <c r="R54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.26905417814508725</v>
       </c>
       <c r="S54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>-0.22176926212800652</v>
       </c>
       <c r="T54" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>-0.71320277953253308</v>
       </c>
     </row>
@@ -5985,55 +6009,55 @@
         <v>-1.0282277621495806E-2</v>
       </c>
       <c r="H55" s="7">
-        <f t="shared" ref="H55:T55" si="95">H50/D50-1</f>
+        <f t="shared" ref="H55:T55" si="98">H50/D50-1</f>
         <v>-1.5224980605120231E-2</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>3.6659148852716221</v>
       </c>
       <c r="J55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>2.7777668855994508</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>2.5340586102126825</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>2.5483998030526833</v>
       </c>
       <c r="M55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-0.2455498812601139</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-7.2449853387653418E-2</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-1.6417993233124428E-2</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-1.8926569351168321E-2</v>
       </c>
       <c r="Q55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-0.13883395080642913</v>
       </c>
       <c r="R55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-0.17664008952301025</v>
       </c>
       <c r="S55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-0.27070997575142386</v>
       </c>
       <c r="T55" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-0.38495700384702425</v>
       </c>
     </row>
@@ -6046,55 +6070,55 @@
         <v>6.3862928348909609E-2</v>
       </c>
       <c r="H56" s="7">
-        <f t="shared" ref="H56:T56" si="96">H47/D47-1</f>
+        <f t="shared" ref="H56:T56" si="99">H47/D47-1</f>
         <v>8.1304237930744039E-2</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.7441764867086873</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.67025537634408594</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.62850698429029328</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.63008415147265073</v>
       </c>
       <c r="M56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-5.3664859769031348E-2</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-4.2674241753643316E-2</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-3.3888969885470854E-2</v>
       </c>
       <c r="P56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-7.1357440469077327E-2</v>
       </c>
       <c r="Q56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-2.7121261176001776E-2</v>
       </c>
       <c r="R56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-6.7835647758985873E-3</v>
       </c>
       <c r="S56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-1.4554234645114739E-2</v>
       </c>
       <c r="T56" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1.488427157147032E-2</v>
       </c>
     </row>
@@ -6105,71 +6129,71 @@
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7">
-        <f>D50/C50-1</f>
+        <f t="shared" ref="D57:T57" si="100">D50/C50-1</f>
         <v>2.9100785721225542E-4</v>
       </c>
       <c r="E57" s="7">
-        <f>E50/D50-1</f>
+        <f t="shared" si="100"/>
         <v>-1.1055081458494986E-2</v>
       </c>
       <c r="F57" s="7">
-        <f>F50/E50-1</f>
+        <f t="shared" si="100"/>
         <v>2.9417532849573824E-4</v>
       </c>
       <c r="G57" s="7">
-        <f>G50/F50-1</f>
+        <f t="shared" si="100"/>
         <v>1.9605920988130521E-4</v>
       </c>
       <c r="H57" s="7">
-        <f>H50/G50-1</f>
+        <f t="shared" si="100"/>
         <v>-4.7044986768597363E-3</v>
       </c>
       <c r="I57" s="7">
-        <f>I50/H50-1</f>
+        <f t="shared" si="100"/>
         <v>3.6856720827178728</v>
       </c>
       <c r="J57" s="7">
-        <f>J50/I50-1</f>
+        <f t="shared" si="100"/>
         <v>-0.1901099132042956</v>
       </c>
       <c r="K57" s="7">
-        <f>K50/J50-1</f>
+        <f t="shared" si="100"/>
         <v>-6.4327788878220882E-2</v>
       </c>
       <c r="L57" s="7">
-        <f>L50/K50-1</f>
+        <f t="shared" si="100"/>
         <v>-6.6559432026180865E-4</v>
       </c>
       <c r="M57" s="7">
-        <f>M50/L50-1</f>
+        <f t="shared" si="100"/>
         <v>-3.7464616750846336E-3</v>
       </c>
       <c r="N57" s="7">
-        <f>N50/M50-1</f>
+        <f t="shared" si="100"/>
         <v>-4.2898130867154993E-3</v>
       </c>
       <c r="O57" s="7">
-        <f>O50/N50-1</f>
+        <f t="shared" si="100"/>
         <v>-7.8052874527906324E-3</v>
       </c>
       <c r="P57" s="7">
-        <f>P50/O50-1</f>
+        <f t="shared" si="100"/>
         <v>-3.2143461343258073E-3</v>
       </c>
       <c r="Q57" s="7">
-        <f>Q50/P50-1</f>
+        <f t="shared" si="100"/>
         <v>-0.12550916496945008</v>
       </c>
       <c r="R57" s="7">
-        <f>R50/Q50-1</f>
+        <f t="shared" si="100"/>
         <v>-4.8002587740578972E-2</v>
       </c>
       <c r="S57" s="7">
-        <f>S50/R50-1</f>
+        <f t="shared" si="100"/>
         <v>-0.12116475824810569</v>
       </c>
       <c r="T57" s="7">
-        <f>T50/S50-1</f>
+        <f t="shared" si="100"/>
         <v>-0.1593659385269669</v>
       </c>
       <c r="U57" s="7"/>
